--- a/xlsx/自由派_intext.xlsx
+++ b/xlsx/自由派_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1092">
   <si>
     <t>自由派</t>
   </si>
@@ -26,10 +26,10 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>自由主義</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_自由派</t>
+    <t>自由主义</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_自由派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1</t>
@@ -47,19 +47,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E8%87%AA%E7%94%B1%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>經濟自由主義</t>
+    <t>经济自由主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E8%B2%BF%E6%98%93</t>
   </si>
   <si>
-    <t>自由貿易</t>
+    <t>自由贸易</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%80%8B%E4%BA%BA%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>個人主義</t>
+    <t>个人主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E6%94%BE%E4%BB%BB</t>
@@ -89,7 +89,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%82%E5%A0%B4%E7%B6%93%E6%BF%9F</t>
   </si>
   <si>
-    <t>市場經濟</t>
+    <t>市场经济</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%80%E6%94%BE%E7%A4%BE%E4%BC%9A</t>
@@ -101,55 +101,55 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%B0%91%E4%B8%BB%E6%AC%8A</t>
   </si>
   <si>
-    <t>人民主權</t>
+    <t>人民主权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%88%A9</t>
   </si>
   <si>
-    <t>權利</t>
+    <t>权利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%95%99%E5%88%86%E9%9B%A2</t>
   </si>
   <si>
-    <t>政教分離</t>
+    <t>政教分离</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E6%94%BF%E5%BA%9C%E8%87%AA%E7%94%B1%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>無政府自由主義</t>
+    <t>无政府自由主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%85%B8%E8%87%AA%E7%94%B1%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>古典自由主義</t>
+    <t>古典自由主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%AE%88%E8%87%AA%E7%94%B1%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>保守自由主義</t>
+    <t>保守自由主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E6%84%8F%E5%BF%97%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>自由意志主義</t>
+    <t>自由意志主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E6%97%8F%E8%87%AA%E7%94%B1%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>民族自由主義</t>
+    <t>民族自由主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%87%AA%E7%94%B1%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>新自由主義</t>
+    <t>新自由主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BF%80%E8%BF%9B%E4%B8%BB%E4%B9%89</t>
@@ -161,13 +161,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E6%B4%9B%E5%85%8B</t>
   </si>
   <si>
-    <t>約翰·洛克</t>
+    <t>约翰·洛克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%95%B6%C2%B7%E6%96%AF%E5%AF%86</t>
   </si>
   <si>
-    <t>亞當·斯密</t>
+    <t>亚当·斯密</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E5%BD%93%C2%B7%E7%A6%8F%E6%A0%BC%E6%A3%AE</t>
@@ -179,13 +179,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B9%AF%E7%91%AA%E6%96%AF%C2%B7%E5%82%91%E4%BD%9B%E9%81%9C</t>
   </si>
   <si>
-    <t>湯瑪斯·傑佛遜</t>
+    <t>汤玛斯·杰佛逊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B9%AF%E7%91%AA%E6%96%AF%C2%B7%E6%BD%98%E6%81%A9</t>
   </si>
   <si>
-    <t>湯瑪斯·潘恩</t>
+    <t>汤玛斯·潘恩</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%8D%AB%C2%B7%E4%BC%91%E8%B0%9F</t>
@@ -197,13 +197,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AD%9F%E5%BE%B7%E6%96%AF%E9%B3%A9</t>
   </si>
   <si>
-    <t>孟德斯鳩</t>
+    <t>孟德斯鸠</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%9B%BC%E5%8A%AA%E7%88%BE%C2%B7%E5%BA%B7%E5%BE%B7</t>
   </si>
   <si>
-    <t>伊曼努爾·康德</t>
+    <t>伊曼努尔·康德</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B0%E9%87%8C%E7%B1%B3%C2%B7%E8%BE%B9%E6%B2%81</t>
@@ -221,7 +221,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%BB%89%C2%B7%E9%A6%AE%C2%B7%E6%B4%AA%E5%A0%A1</t>
   </si>
   <si>
-    <t>威廉·馮·洪堡</t>
+    <t>威廉·冯·洪堡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E9%9B%B7%E5%BE%B7%E9%87%8C%E5%85%8B%C2%B7%E5%B7%B4%E6%96%AF%E5%A4%8F</t>
@@ -257,13 +257,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E7%89%B9%E8%98%AD%C2%B7%E7%BE%85%E7%B4%A0</t>
   </si>
   <si>
-    <t>伯特蘭·羅素</t>
+    <t>伯特兰·罗素</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E5%BE%B7%E7%B6%AD%E5%B8%8C%C2%B7%E9%A6%AE%C2%B7%E7%B1%B3%E5%A1%9E%E6%96%AF</t>
   </si>
   <si>
-    <t>路德維希·馮·米塞斯</t>
+    <t>路德维希·冯·米塞斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E9%87%8C%E5%BE%B7%E9%87%8C%E5%B8%8C%C2%B7%E5%93%88%E8%80%B6%E5%85%8B</t>
@@ -281,13 +281,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E7%BE%85%E7%88%BE%E6%96%AF</t>
   </si>
   <si>
-    <t>約翰·羅爾斯</t>
+    <t>约翰·罗尔斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E4%BC%AF%E7%89%B9%C2%B7%E8%AB%BE%E9%BD%8A%E5%85%8B</t>
   </si>
   <si>
-    <t>羅伯特·諾齊克</t>
+    <t>罗伯特·诺齐克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%A5%E5%A4%8D</t>
@@ -317,19 +317,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E8%87%AA%E7%94%B1%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>國際自由聯盟</t>
+    <t>国际自由联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E8%87%AA%E7%94%B1%E6%B0%91%E4%B8%BB%E6%94%B9%E9%9D%A9%E9%BB%A8</t>
   </si>
   <si>
-    <t>歐洲自由民主改革黨</t>
+    <t>欧洲自由民主改革党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E8%87%AA%E7%94%B1%E6%B0%91%E4%B8%BB%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>歐洲自由民主聯盟</t>
+    <t>欧洲自由民主联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:Liberalism</t>
@@ -353,13 +353,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A5%B5%E6%AC%8A%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>極權主義</t>
+    <t>极权主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%A0%E8%89%B2%E7%84%A1%E6%94%BF%E5%BA%9C%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>綠色無政府主義</t>
+    <t>绿色无政府主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E4%B8%BB%E4%B9%89</t>
@@ -407,7 +407,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E5%9C%98%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>社團主義</t>
+    <t>社团主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E4%B8%BB%E4%B9%89</t>
@@ -431,37 +431,37 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E6%85%8B%E7%A4%BE%E6%9C%83%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>生態社會主義</t>
+    <t>生态社会主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E6%94%BF%E5%BA%9C%E7%A4%BE%E6%9C%83%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>無政府社會主義</t>
+    <t>无政府社会主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E6%84%8F%E5%BF%97%E7%A4%BE%E6%9C%83%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>自由意志社會主義</t>
+    <t>自由意志社会主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E7%BE%A4%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>社群主義</t>
+    <t>社群主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%86%E9%AB%94%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>集體主義</t>
+    <t>集体主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E6%95%99%E6%B0%91%E4%B8%BB%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>基督教民主主義</t>
+    <t>基督教民主主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E4%B8%BB%E4%B9%89</t>
@@ -497,19 +497,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E6%B0%91%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>三民主義</t>
+    <t>三民主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E4%BF%9D%E5%AE%88%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>自由保守主義</t>
+    <t>自由保守主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E6%97%8F%E4%BF%9D%E5%AE%88%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>民族保守主義</t>
+    <t>民族保守主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%AF%E5%A2%83%E4%BF%9D%E6%8A%A4%E4%B8%BB%E4%B9%89</t>
@@ -527,13 +527,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E6%97%8F%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>民族主義</t>
+    <t>民族主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8E%9F%E6%95%99%E6%97%A8%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>原教旨主義</t>
+    <t>原教旨主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E6%95%99%E5%9F%BA%E8%A6%81%E4%B8%BB%E4%B9%89</t>
@@ -563,19 +563,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E7%B2%B9%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>納粹主義</t>
+    <t>纳粹主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E6%84%8F%E8%AD%98%E5%BD%A2%E6%85%8B%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>政治意識形態列表</t>
+    <t>政治意识形态列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E8%AD%98%E5%BD%A2%E6%85%8B</t>
   </si>
   <si>
-    <t>意識形態</t>
+    <t>意识形态</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%B2%E5%AD%A6</t>
@@ -599,7 +599,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83</t>
   </si>
   <si>
-    <t>社會</t>
+    <t>社会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BE%8B</t>
@@ -617,7 +617,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%8A%9B</t>
   </si>
   <si>
-    <t>權力</t>
+    <t>权力</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B5%84%E6%9C%AC%E4%B8%BB%E4%B9%89</t>
@@ -641,7 +641,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8F%BE%E4%BB%A3</t>
   </si>
   <si>
-    <t>現代</t>
+    <t>现代</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E5%85%B1%E5%92%8C%E5%88%B6</t>
@@ -659,79 +659,76 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%B8%E8%88%89%E5%88%B6%E5%BA%A6</t>
   </si>
   <si>
-    <t>選舉制度</t>
+    <t>选举制度</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%83%E6%94%BF%E6%AC%8A</t>
   </si>
   <si>
-    <t>參政權</t>
+    <t>参政权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%9B%E6%AC%8A%E7%A5%9E%E6%8E%88%E8%AA%AA</t>
   </si>
   <si>
-    <t>君權神授說</t>
+    <t>君权神授说</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E8%A5%B2</t>
   </si>
   <si>
-    <t>世襲</t>
+    <t>世袭</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%95%99</t>
   </si>
   <si>
-    <t>國教</t>
+    <t>国教</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E6%9C%AC%E4%BA%BA%E6%AC%8A</t>
   </si>
   <si>
-    <t>基本人權</t>
+    <t>基本人权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E5%91%BD%E6%AC%8A</t>
   </si>
   <si>
-    <t>生命權</t>
+    <t>生命权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E6%AC%8A</t>
   </si>
   <si>
-    <t>自由權</t>
+    <t>自由权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%A1%E7%94%A2%E6%AC%8A</t>
   </si>
   <si>
-    <t>財產權</t>
+    <t>财产权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A8%85</t>
   </si>
   <si>
-    <t>稅</t>
+    <t>税</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E5%88%A9%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>福利國家</t>
+    <t>福利国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E8%87%AA%E7%94%B1%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>社會自由主義</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%95%9F%E8%92%99%E6%99%82%E4%BB%A3</t>
   </si>
   <si>
-    <t>啟蒙時代</t>
+    <t>启蒙时代</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A6%E6%B4%BE</t>
@@ -749,7 +746,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%85%89%E8%AD%9C</t>
   </si>
   <si>
-    <t>政治光譜</t>
+    <t>政治光谱</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%AF%AD</t>
@@ -773,7 +770,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%88%BE%E5%BA%AB%E6%96%AF%C2%B7%E5%A5%A7%E5%88%97%E9%87%8C%E7%83%8F%E6%96%AF</t>
   </si>
   <si>
-    <t>馬爾庫斯·奧列里烏斯</t>
+    <t>马尔库斯·奥列里乌斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%89%E6%80%9D%E5%BD%95</t>
@@ -791,7 +788,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9%E6%96%87%E8%97%9D%E5%BE%A9%E8%88%88</t>
   </si>
   <si>
-    <t>義大利文藝復興</t>
+    <t>义大利文艺复兴</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E5%AE%97</t>
@@ -809,25 +806,22 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B</t>
   </si>
   <si>
-    <t>英國</t>
+    <t>英国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7%E6%B4%9B%E5%85%8B</t>
   </si>
   <si>
-    <t>约翰·洛克</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B</t>
   </si>
   <si>
-    <t>法國</t>
+    <t>法国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%9B%E6%B4%A5%E8%8B%B1%E8%AA%9E%E8%A9%9E%E5%85%B8</t>
   </si>
   <si>
-    <t>牛津英語詞典</t>
+    <t>牛津英语词典</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%89%E6%9C%AC</t>
@@ -839,7 +833,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%8D%A8%E7%AB%8B%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>美國獨立戰爭</t>
+    <t>美国独立战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%A4%A7%E9%9D%A9%E5%91%BD</t>
@@ -851,19 +845,16 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E7%94%A2%E9%9A%8E%E7%B4%9A</t>
   </si>
   <si>
-    <t>資產階級</t>
+    <t>资产阶级</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E5%BD%93%C2%B7%E6%96%AF%E5%AF%86</t>
   </si>
   <si>
-    <t>亚当·斯密</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AF%8C%E8%AB%96</t>
   </si>
   <si>
-    <t>國富論</t>
+    <t>国富论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99</t>
@@ -875,13 +866,10 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9B%BD</t>
   </si>
   <si>
-    <t>英国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%AE%88%E9%BB%A8_(%E8%8B%B1%E5%9C%8B)</t>
   </si>
   <si>
-    <t>保守黨 (英國)</t>
+    <t>保守党 (英国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%9C%E4%BC%A6</t>
@@ -899,19 +887,16 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%85%B8%E8%87%AA%E7%94%B1%E4%B8%BB%E4%B9%89</t>
   </si>
   <si>
-    <t>古典自由主义</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%86%B2%E7%AB%A0</t>
   </si>
   <si>
-    <t>大憲章</t>
+    <t>大宪章</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E5%A5%91%E7%B4%84</t>
   </si>
   <si>
-    <t>社會契約</t>
+    <t>社会契约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E6%B2%BB</t>
@@ -953,7 +938,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%A3%E6%B7%AB</t>
   </si>
   <si>
-    <t>賣淫</t>
+    <t>卖淫</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A0%95%E8%83%8E</t>
@@ -1001,13 +986,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E6%94%BF%E5%BA%9C%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>小政府主義</t>
+    <t>小政府主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E6%94%BF%E5%BA%9C%E8%B3%87%E6%9C%AC%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>無政府資本主義</t>
+    <t>无政府资本主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E5%8C%96</t>
@@ -1061,7 +1046,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E8%A1%93%E9%A4%A8</t>
   </si>
   <si>
-    <t>美術館</t>
+    <t>美术馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E6%89%98%E6%8B%89%E6%96%AF%E6%B3%95</t>
@@ -1073,19 +1058,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%80%E4%BD%8E%E5%B7%A5%E8%B3%87</t>
   </si>
   <si>
-    <t>最低工資</t>
+    <t>最低工资</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E8%87%AA%E7%94%B1</t>
   </si>
   <si>
-    <t>經濟自由</t>
+    <t>经济自由</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E9%AD%AF%E5%A1%94%E5%85%8B</t>
   </si>
   <si>
-    <t>普魯塔克</t>
+    <t>普鲁塔克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A2%AD%E4%BC%A6</t>
@@ -1097,21 +1082,12 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%87%AA%E7%94%B1%E4%B8%BB%E4%B9%89</t>
   </si>
   <si>
-    <t>新自由主义</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E6%84%8F%E5%BF%97%E4%B8%BB%E4%B9%89</t>
   </si>
   <si>
-    <t>自由意志主义</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E7%BE%A4%E4%B8%BB%E4%B9%89</t>
   </si>
   <si>
-    <t>社群主义</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E6%9D%83%E4%B8%BB%E4%B9%89</t>
   </si>
   <si>
@@ -1139,13 +1115,10 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E6%B0%91%E4%B8%BB%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>社會民主主義</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%86%E9%AB%94%E5%AE%89%E5%85%A8</t>
   </si>
   <si>
-    <t>集體安全</t>
+    <t>集体安全</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B5%AB%E4%BC%AF%E7%89%B9%C2%B7%E6%96%AF%E5%AE%BE%E5%A1%9E</t>
@@ -1157,7 +1130,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E6%96%AF%E5%A1%94%E5%A4%AB%C2%B7%E5%BE%B7%C2%B7%E8%8E%AB%E5%88%A9%E7%B4%8D%E9%87%8C</t>
   </si>
   <si>
-    <t>古斯塔夫·德·莫利納里</t>
+    <t>古斯塔夫·德·莫利纳里</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E5%A4%A7%E5%88%A9</t>
@@ -1187,27 +1160,21 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BC%9D%E6%A0%BC%E9%BB%A8_(%E8%8B%B1%E5%9C%8B)</t>
   </si>
   <si>
-    <t>輝格黨 (英國)</t>
+    <t>辉格党 (英国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD</t>
   </si>
   <si>
-    <t>法国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%9B%E4%B8%BB%E5%B0%88%E5%88%B6%E6%94%BF%E9%AB%94</t>
   </si>
   <si>
-    <t>君主專制政體</t>
+    <t>君主专制政体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%8D%E5%95%86%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>重商主義</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%84%B6%E6%B3%95</t>
   </si>
   <si>
@@ -1229,13 +1196,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%9D%A9%E5%91%BD</t>
   </si>
   <si>
-    <t>美國革命</t>
+    <t>美国革命</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AE%93-%E5%B7%B4%E8%92%82%E6%96%AF%E7%89%B9%C2%B7%E8%B3%BD%E4%BC%8A</t>
   </si>
   <si>
-    <t>讓-巴蒂斯特·賽伊</t>
+    <t>让-巴蒂斯特·赛伊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%8D%E5%86%9C%E4%B8%BB%E4%B9%89</t>
@@ -1259,7 +1226,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8F%E7%88%BE%E6%B3%B0</t>
   </si>
   <si>
-    <t>伏爾泰</t>
+    <t>伏尔泰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%B0%BC%C2%B7%E7%8B%84%E5%BE%B7%E7%BD%97</t>
@@ -1271,7 +1238,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%AC%E5%82%91%E6%98%8E%C2%B7%E5%AF%8C%E8%98%AD%E5%85%8B%E6%9E%97</t>
   </si>
   <si>
-    <t>本傑明·富蘭克林</t>
+    <t>本杰明·富兰克林</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%98%E9%A9%AC%E6%96%AF%C2%B7%E6%9D%B0%E6%96%90%E9%80%8A</t>
@@ -1283,15 +1250,12 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E6%A0%BC%E8%98%AD%E5%95%9F%E8%92%99%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>蘇格蘭啟蒙運動</t>
+    <t>苏格兰启蒙运动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%9B%BC%E5%8A%AA%E5%B0%94%C2%B7%E5%BA%B7%E5%BE%B7</t>
   </si>
   <si>
-    <t>伊曼努尔·康德</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8A%AC%E5%85%B0</t>
   </si>
   <si>
@@ -1301,7 +1265,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%93%E5%BE%B7%E6%83%85%E6%93%8D%E8%AB%96</t>
   </si>
   <si>
-    <t>道德情操論</t>
+    <t>道德情操论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%9D%E5%AF%B9%E5%91%BD%E4%BB%A4</t>
@@ -1313,7 +1277,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E5%85%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>英國內戰</t>
+    <t>英国内战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E6%A0%BC%E5%85%B0%E8%81%94%E9%82%A6</t>
@@ -1373,7 +1337,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%89%E7%AD%89%E7%B4%9A</t>
   </si>
   <si>
-    <t>第三等級</t>
+    <t>第三等级</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E6%B3%95%E8%80%B6%E7%89%B9%E4%BE%AF%E7%88%B5</t>
@@ -1433,7 +1397,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%91%E7%B4%84</t>
   </si>
   <si>
-    <t>契約</t>
+    <t>契约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E6%B2%BB%E5%9C%B0%E6%96%B9</t>
@@ -1445,7 +1409,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%AD%B7%E8%A5%BF%E6%96%AF%C2%B7%E6%89%98%E5%85%8B%E7%B6%AD%E7%88%BE</t>
   </si>
   <si>
-    <t>亞歷西斯·托克維爾</t>
+    <t>亚历西斯·托克维尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9B%BD</t>
@@ -1499,13 +1463,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E7%88%BE%E9%A0%93%C2%B7%E4%BD%9B%E5%88%A9%E6%B0%91</t>
   </si>
   <si>
-    <t>米爾頓·佛利民</t>
+    <t>米尔顿·佛利民</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AD%98%E5%AD%97%E7%8E%87</t>
   </si>
   <si>
-    <t>識字率</t>
+    <t>识字率</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9C%8D%E5%B8%83%E8%B1%AA%E6%96%AF</t>
@@ -1553,7 +1517,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>國際聯盟</t>
+    <t>国际联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A</t>
@@ -1613,13 +1577,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E9%80%A3%E5%A1%94%E8%AB%BE</t>
   </si>
   <si>
-    <t>布連塔諾</t>
+    <t>布连塔诺</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E9%BB%A8_(%E8%8B%B1%E5%9C%8B)</t>
   </si>
   <si>
-    <t>自由黨 (英國)</t>
+    <t>自由党 (英国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%87%AF%E6%81%A9%E6%96%AF%E4%B8%BB%E4%B9%89</t>
@@ -1631,7 +1595,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E6%9C%AC%E4%B8%BB%E7%BE%A9%E8%88%87%E8%87%AA%E7%94%B1</t>
   </si>
   <si>
-    <t>資本主義與自由</t>
+    <t>资本主义与自由</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%94%E7%93%A6%E5%B0%BC%C2%B7%E7%A7%A6%E6%A2%AF%E5%88%A9</t>
@@ -1655,15 +1619,9 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BA%B3%E7%B2%B9%E4%B8%BB%E4%B9%89</t>
   </si>
   <si>
-    <t>纳粹主义</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%A5%BF%E6%96%AF%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>法西斯主義</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E5%85%8B%E6%80%9D%E5%88%97%E5%AE%81%E4%B8%BB%E4%B9%89</t>
   </si>
   <si>
@@ -1673,7 +1631,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A8%88%E5%8A%83%E7%B6%93%E6%BF%9F</t>
   </si>
   <si>
-    <t>計劃經濟</t>
+    <t>计划经济</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BC%A0%E7%BB%9F%E5%9F%BA%E9%87%91%E4%BC%9A</t>
@@ -1697,7 +1655,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%96%8B%E6%94%BE%E7%A4%BE%E6%9C%83%E5%8F%8A%E5%85%B6%E6%95%B5%E4%BA%BA</t>
   </si>
   <si>
-    <t>開放社會及其敵人</t>
+    <t>开放社会及其敌人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E5%85%83</t>
@@ -1715,33 +1673,27 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8F%BE%E4%BB%A3%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>現代主義</t>
+    <t>现代主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%B2%E6%AD%A5%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>進步主義</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E6%88%91%E5%AF%A6%E7%8F%BE</t>
   </si>
   <si>
-    <t>自我實現</t>
+    <t>自我实现</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E5%8A%A0%E7%88%BE%E5%B8%83%E9%9B%B7%E6%96%AF</t>
   </si>
   <si>
-    <t>約翰·加爾布雷斯</t>
+    <t>约翰·加尔布雷斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7%E7%BD%97%E5%B0%94%E6%96%AF</t>
   </si>
   <si>
-    <t>约翰·罗尔斯</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E5%B0%94%E5%A4%AB%C2%B7%E8%BE%BE%E4%BC%A6%E5%A4%9A%E5%A4%AB</t>
   </si>
   <si>
@@ -1751,19 +1703,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%9C%B0%E5%88%A9%E7%B6%93%E6%BF%9F%E5%AD%B8%E6%B4%BE</t>
   </si>
   <si>
-    <t>奧地利經濟學派</t>
+    <t>奥地利经济学派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E5%B8%82%E5%A0%B4</t>
   </si>
   <si>
-    <t>自由市場</t>
+    <t>自由市场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>歐洲大陸</t>
+    <t>欧洲大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%9A%84%E5%B9%B3%E6%9D%83%E6%B3%95%E6%A1%88</t>
@@ -1775,19 +1727,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%A7%E8%A6%96</t>
   </si>
   <si>
-    <t>歧視</t>
+    <t>歧视</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E7%9B%9F</t>
   </si>
   <si>
-    <t>歐盟</t>
+    <t>欧盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E5%96%AE%E4%B8%80%E5%B8%82%E5%A0%B4</t>
   </si>
   <si>
-    <t>歐洲單一市場</t>
+    <t>欧洲单一市场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%AA%E6%B3%95</t>
@@ -1799,7 +1751,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%B8%E8%88%89</t>
   </si>
   <si>
-    <t>選舉</t>
+    <t>选举</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E6%8E%A5%E6%B0%91%E4%B8%BB</t>
@@ -1823,7 +1775,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B8%E6%B3%95%E9%83%A8%E9%96%80</t>
   </si>
   <si>
-    <t>司法部門</t>
+    <t>司法部门</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A0%E7%BD%AA%E6%8E%A8%E5%AE%9A%E5%8E%9F%E5%88%99</t>
@@ -1841,7 +1793,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E8%BA%AB%E4%BF%9D%E8%AD%B7%E4%BB%A4</t>
   </si>
   <si>
-    <t>人身保護令</t>
+    <t>人身保护令</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%BB%E5%88%91</t>
@@ -1865,7 +1817,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E6%94%BE%E4%BB%BB%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>自由放任主義</t>
+    <t>自由放任主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%81%E6%9C%89%E5%8C%96</t>
@@ -1877,25 +1829,22 @@
     <t>https://zh.wikipedia.org/wiki/%E5%83%B9%E5%80%BC%E8%A7%80</t>
   </si>
   <si>
-    <t>價值觀</t>
+    <t>价值观</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8D%A8%E7%AB%8B%E5%AE%A3%E8%A8%80</t>
   </si>
   <si>
-    <t>獨立宣言</t>
+    <t>独立宣言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A2%AE%E8%83%8E</t>
   </si>
   <si>
-    <t>墮胎</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%8C%E6%80%A7%E6%88%80%E6%AC%8A%E5%88%A9</t>
   </si>
   <si>
-    <t>同性戀權利</t>
+    <t>同性恋权利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%AF%E6%8C%81%E7%BB%AD%E5%8F%91%E5%B1%95</t>
@@ -1925,7 +1874,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%8D%A1_(%E6%9C%8D%E9%A3%BE)</t>
   </si>
   <si>
-    <t>波卡 (服飾)</t>
+    <t>波卡 (服饰)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%85%E5%8A%9E%E5%A9%9A%E5%A7%BB</t>
@@ -1937,49 +1886,46 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%86%E6%AC%8A%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>集權主義</t>
+    <t>集权主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E7%A4%BE%E6%9C%83%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>國家社會主義</t>
+    <t>国家社会主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E6%AC%8A</t>
   </si>
   <si>
-    <t>主權</t>
+    <t>主权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>世界主義</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%A7%E7%AA%AE</t>
   </si>
   <si>
-    <t>貧窮</t>
+    <t>贫穷</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%9C%89%E5%8C%96</t>
   </si>
   <si>
-    <t>國有化</t>
+    <t>国有化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E6%AD%A3%E7%BE%A9</t>
   </si>
   <si>
-    <t>社會正義</t>
+    <t>社会正义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A3%9C%E8%B2%BC</t>
   </si>
   <si>
-    <t>補貼</t>
+    <t>补贴</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B2%BE%E8%8B%B1%E6%94%BF%E6%B2%BB</t>
@@ -1991,21 +1937,15 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>國家主義</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%97%E6%95%99%E6%95%99%E7%BE%A9</t>
   </si>
   <si>
-    <t>宗教教義</t>
+    <t>宗教教义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E8%AF%86%E5%BD%A2%E6%80%81</t>
   </si>
   <si>
-    <t>意识形态</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A0%E9%A2%86%E5%8D%8E%E5%B0%94%E8%A1%97</t>
   </si>
   <si>
@@ -2015,7 +1955,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%8C%96%E4%BF%9D%E5%AE%88%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>文化保守主義</t>
+    <t>文化保守主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A2%E5%8D%A1%E5%A5%87</t>
@@ -2039,7 +1979,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%A4%9A%E8%AB%BE</t>
   </si>
   <si>
-    <t>阿多諾</t>
+    <t>阿多诺</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E6%B4%9B%E5%A7%86</t>
@@ -2051,7 +1991,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%95%B0%E5%8C%96</t>
   </si>
   <si>
-    <t>異化</t>
+    <t>异化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A6%E7%BF%BC</t>
@@ -2075,9 +2015,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%82%E5%9C%BA%E7%BB%8F%E6%B5%8E</t>
   </si>
   <si>
-    <t>市场经济</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A6%E6%B4%BE%E5%92%8C%E5%8F%B3%E6%B4%BE</t>
   </si>
   <si>
@@ -2093,7 +2030,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9F%A5%E8%AD%98%E5%AD%B8</t>
   </si>
   <si>
-    <t>知識學</t>
+    <t>知识学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%BB%E8%BE%91</t>
@@ -2117,7 +2054,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E5%8B%95%E7%90%86%E8%AB%96</t>
   </si>
   <si>
-    <t>行動理論</t>
+    <t>行动理论</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Philosophy_of_culture</t>
@@ -2165,7 +2102,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A2%83%E5%93%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>環境哲學</t>
+    <t>环境哲学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Philosophy_of_healthcare</t>
@@ -2183,7 +2120,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%B2%E5%AD%B8%E4%BA%BA%E9%A1%9E%E5%AD%B8</t>
   </si>
   <si>
-    <t>哲學人類學</t>
+    <t>哲学人类学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Theories_of_humor</t>
@@ -2261,13 +2198,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E5%AD%B8%E5%93%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>生物學哲學</t>
+    <t>生物学哲学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%90%86%E5%93%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>地理哲學</t>
+    <t>地理哲学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Philosophy_of_sex</t>
@@ -2291,7 +2228,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%B9%B3%E6%AD%A3%E7%BE%A9</t>
   </si>
   <si>
-    <t>公平正義</t>
+    <t>公平正义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E5%93%B2%E5%AD%A6</t>
@@ -2339,7 +2276,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%B2%E5%AD%B8%E5%8F%B2</t>
   </si>
   <si>
-    <t>哲學史</t>
+    <t>哲学史</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%96%B9%E5%93%B2%E5%AD%A6</t>
@@ -2357,7 +2294,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BF%91%E4%BB%A3%E5%93%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>近代哲學</t>
+    <t>近代哲学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%B4%9B%E5%85%8B%E6%97%B6%E6%9C%9F%E5%93%B2%E5%AD%A6</t>
@@ -2381,7 +2318,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E6%96%B9%E5%93%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>東方哲學</t>
+    <t>东方哲学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E5%93%B2%E5%AD%A6</t>
@@ -2417,7 +2354,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AD%8F%E6%99%89%E7%8E%84%E5%AD%B8</t>
   </si>
   <si>
-    <t>魏晉玄學</t>
+    <t>魏晋玄学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%93%E5%AE%B6</t>
@@ -2465,7 +2402,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A9%AD%E8%BE%AF%E5%AD%B8%E6%B4%BE</t>
   </si>
   <si>
-    <t>詭辯學派</t>
+    <t>诡辩学派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%8F%E6%8B%89%E5%9B%BE%E4%B8%BB%E4%B9%89</t>
@@ -2477,31 +2414,31 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E9%87%8C%E6%96%AF%E5%A4%9A%E5%BE%B7%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>亞里斯多德主義</t>
+    <t>亚里斯多德主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%8D%E9%81%99%E5%AD%B8%E6%B4%BE</t>
   </si>
   <si>
-    <t>逍遙學派</t>
+    <t>逍遥学派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8A%AC%E5%84%92%E5%AD%B8%E6%B4%BE</t>
   </si>
   <si>
-    <t>犬儒學派</t>
+    <t>犬儒学派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%AF%94%E9%B3%A9%E9%AD%AF%E5%AD%B8%E6%B4%BE</t>
   </si>
   <si>
-    <t>伊比鳩魯學派</t>
+    <t>伊比鸠鲁学派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E5%A4%9A%E4%BA%9E%E5%AD%B8%E6%B4%BE</t>
   </si>
   <si>
-    <t>斯多亞學派</t>
+    <t>斯多亚学派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%9F%8F%E6%8B%89%E5%9B%BE%E4%B8%BB%E4%B9%89</t>
@@ -2513,7 +2450,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A7%A3%E9%87%8B%E5%AD%B8</t>
   </si>
   <si>
-    <t>解釋學</t>
+    <t>解释学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6%E5%93%B2%E5%AD%A6</t>
@@ -2573,7 +2510,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E4%B8%96%E7%B4%80%E5%93%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>中世紀哲學</t>
+    <t>中世纪哲学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E6%95%99%E5%93%B2%E5%AD%A6</t>
@@ -2603,7 +2540,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%8B%E6%98%8E%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>宋明理學</t>
+    <t>宋明理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A8%8B%E6%9C%B1%E7%90%86%E5%AD%A6</t>
@@ -2621,13 +2558,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%8B%E5%8A%9F%E5%AD%B8%E6%B4%BE</t>
   </si>
   <si>
-    <t>事功學派</t>
+    <t>事功学派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%93%E5%9C%8B%E5%84%92%E5%AD%B8</t>
   </si>
   <si>
-    <t>韓國儒學</t>
+    <t>韩国儒学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E6%9C%B1%E5%AD%90%E5%AD%A6</t>
@@ -2693,7 +2630,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8C%B6%E5%A4%AA%E6%95%99%E5%93%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>猶太教哲學</t>
+    <t>犹太教哲学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Judeo-Islamic_philosophies_(800%E2%80%931400)</t>
@@ -2771,7 +2708,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%95%88%E7%9B%8A%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>效益主義</t>
+    <t>效益主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%9E%E7%94%A8%E4%B8%BB%E4%B9%89</t>
@@ -2783,7 +2720,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8F%BE%E8%B1%A1%E5%AD%B8</t>
   </si>
   <si>
-    <t>現象學</t>
+    <t>现象学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%85%E9%AA%8C%E4%B8%BB%E4%B9%89</t>
@@ -2801,7 +2738,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E5%9C%8B%E5%AD%B8</t>
   </si>
   <si>
-    <t>日本國學</t>
+    <t>日本国学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%84%92%E5%AE%B6</t>
@@ -2813,7 +2750,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%88%86%E6%9E%90%E5%93%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>分析哲學</t>
+    <t>分析哲学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Analytical_feminism</t>
@@ -2831,7 +2768,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%A6%E9%A9%97%E5%93%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>實驗哲學</t>
+    <t>实验哲学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Internalism_and_externalism</t>
@@ -2879,13 +2816,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E5%B8%B8%E8%AA%9E%E8%A8%80%E5%93%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>日常語言哲學</t>
+    <t>日常语言哲学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%82%E9%9D%9C%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>寂靜主義</t>
+    <t>寂静主义</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Reformed_epistemology</t>
@@ -2903,7 +2840,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E6%80%A7%E5%80%AB%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>德性倫理學</t>
+    <t>德性伦理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E4%B9%9F%E7%BA%B3%E5%AD%A6%E6%B4%BE</t>
@@ -2921,19 +2858,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E9%99%B8%E5%93%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>歐陸哲學</t>
+    <t>欧陆哲学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%B9%E5%88%A4%E7%90%86%E8%AB%96</t>
   </si>
   <si>
-    <t>批判理論</t>
+    <t>批判理论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A7%A3%E6%A7%8B%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>解構主義</t>
+    <t>解构主义</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Feminist_philosophy</t>
@@ -2945,7 +2882,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%98%AD%E5%85%8B%E7%A6%8F%E5%AD%B8%E6%B4%BE</t>
   </si>
   <si>
-    <t>法蘭克福學派</t>
+    <t>法兰克福学派</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Postmodern_philosophy</t>
@@ -2957,7 +2894,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%8C%E7%B5%90%E6%A7%8B%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>後結構主義</t>
+    <t>后结构主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E5%BB%BA%E6%9E%84%E4%B8%BB%E4%B9%89</t>
@@ -2969,13 +2906,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B5%90%E6%A7%8B%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>結構主義</t>
+    <t>结构主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%AC%E9%83%BD%E5%AD%B8%E6%B4%BE</t>
   </si>
   <si>
-    <t>京都學派</t>
+    <t>京都学派</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Russian_cosmism</t>
@@ -3017,7 +2954,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B1%BA%E5%AE%9A%E8%AB%96</t>
   </si>
   <si>
-    <t>決定論</t>
+    <t>决定论</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Libertarianism_(metaphysics)</t>
@@ -3029,7 +2966,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8E%9F%E5%AD%90%E8%AB%96</t>
   </si>
   <si>
-    <t>原子論</t>
+    <t>原子论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%8C%E5%85%83%E8%AE%BA</t>
@@ -3047,7 +2984,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BD%A2%E8%80%8C%E4%B8%8A%E8%87%AA%E7%84%B6%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>形而上自然主義</t>
+    <t>形而上自然主义</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Constructivist_epistemology</t>
@@ -3071,7 +3008,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%A1%E4%BB%B0%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>信仰主義</t>
+    <t>信仰主义</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Reasonism</t>
@@ -3089,7 +3026,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%94%AF%E6%88%91%E8%AB%96</t>
   </si>
   <si>
-    <t>唯我論</t>
+    <t>唯我论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E4%B8%BA%E4%B8%BB%E4%B9%89</t>
@@ -3119,13 +3056,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%A2%E8%A7%80%E6%80%A7</t>
   </si>
   <si>
-    <t>客觀性</t>
+    <t>客观性</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E8%A7%80%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>主觀主義</t>
+    <t>主观主义</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Norm_(philosophy)</t>
@@ -3155,7 +3092,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%93%E5%BE%B7%E8%99%9B%E7%84%A1%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>道德虛無主義</t>
+    <t>道德虚无主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%93%E5%BE%B7%E6%80%80%E7%96%91%E4%B8%BB%E4%B9%89</t>
@@ -3185,7 +3122,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8F%BE%E5%AF%A6</t>
   </si>
   <si>
-    <t>現實</t>
+    <t>现实</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Anti-realism</t>
@@ -3197,15 +3134,12 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A6%82%E5%BF%B5%E8%AB%96</t>
   </si>
   <si>
-    <t>概念論</t>
+    <t>概念论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%94%AF%E5%BF%83%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>唯心主義</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%94%AF%E7%89%A9%E4%B8%BB%E4%B9%89</t>
   </si>
   <si>
@@ -3215,13 +3149,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%94%AF%E5%90%8D%E8%AB%96</t>
   </si>
   <si>
-    <t>唯名論</t>
+    <t>唯名论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%A6%E5%9C%A8%E8%AB%96</t>
   </si>
   <si>
-    <t>實在論</t>
+    <t>实在论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%B4%B2%E5%93%B2%E5%AD%A6</t>
@@ -3245,7 +3179,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E5%93%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>日本哲學</t>
+    <t>日本哲学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Korean_philosophy</t>
@@ -3257,7 +3191,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E5%93%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>臺灣哲學</t>
+    <t>台湾哲学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Indonesian_philosophy</t>
@@ -3299,7 +3233,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B%E5%93%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>德國哲學</t>
+    <t>德国哲学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Italian_philosophy</t>
@@ -3335,19 +3269,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%AA%E8%A7%A3%E6%B1%BA%E7%9A%84%E5%93%B2%E5%AD%B8%E5%95%8F%E9%A1%8C</t>
   </si>
   <si>
-    <t>未解決的哲學問題</t>
+    <t>未解决的哲学问题</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%B2%E5%AD%B8%E6%A6%82%E5%BF%B5%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>哲學概念列表</t>
+    <t>哲学概念列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%B2%E5%AD%B8%E5%AE%B6%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>哲學家列表</t>
+    <t>哲学家列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E4%B8%BB%E4%B9%89</t>
@@ -7236,7 +7170,7 @@
         <v>235</v>
       </c>
       <c r="F122" t="s">
-        <v>236</v>
+        <v>152</v>
       </c>
       <c r="G122" t="n">
         <v>15</v>
@@ -7262,10 +7196,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
+        <v>236</v>
+      </c>
+      <c r="F123" t="s">
         <v>237</v>
-      </c>
-      <c r="F123" t="s">
-        <v>238</v>
       </c>
       <c r="G123" t="n">
         <v>4</v>
@@ -7291,10 +7225,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
+        <v>238</v>
+      </c>
+      <c r="F124" t="s">
         <v>239</v>
-      </c>
-      <c r="F124" t="s">
-        <v>240</v>
       </c>
       <c r="G124" t="n">
         <v>5</v>
@@ -7320,10 +7254,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
+        <v>240</v>
+      </c>
+      <c r="F125" t="s">
         <v>241</v>
-      </c>
-      <c r="F125" t="s">
-        <v>242</v>
       </c>
       <c r="G125" t="n">
         <v>3</v>
@@ -7349,10 +7283,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
+        <v>242</v>
+      </c>
+      <c r="F126" t="s">
         <v>243</v>
-      </c>
-      <c r="F126" t="s">
-        <v>244</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -7378,10 +7312,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
+        <v>244</v>
+      </c>
+      <c r="F127" t="s">
         <v>245</v>
-      </c>
-      <c r="F127" t="s">
-        <v>246</v>
       </c>
       <c r="G127" t="n">
         <v>75</v>
@@ -7407,10 +7341,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
+        <v>246</v>
+      </c>
+      <c r="F128" t="s">
         <v>247</v>
-      </c>
-      <c r="F128" t="s">
-        <v>248</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -7436,10 +7370,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
+        <v>248</v>
+      </c>
+      <c r="F129" t="s">
         <v>249</v>
-      </c>
-      <c r="F129" t="s">
-        <v>250</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -7465,10 +7399,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
+        <v>250</v>
+      </c>
+      <c r="F130" t="s">
         <v>251</v>
-      </c>
-      <c r="F130" t="s">
-        <v>252</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -7494,10 +7428,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
+        <v>252</v>
+      </c>
+      <c r="F131" t="s">
         <v>253</v>
-      </c>
-      <c r="F131" t="s">
-        <v>254</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -7523,10 +7457,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
+        <v>254</v>
+      </c>
+      <c r="F132" t="s">
         <v>255</v>
-      </c>
-      <c r="F132" t="s">
-        <v>256</v>
       </c>
       <c r="G132" t="n">
         <v>2</v>
@@ -7552,10 +7486,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
+        <v>256</v>
+      </c>
+      <c r="F133" t="s">
         <v>257</v>
-      </c>
-      <c r="F133" t="s">
-        <v>258</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -7581,10 +7515,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
+        <v>258</v>
+      </c>
+      <c r="F134" t="s">
         <v>259</v>
-      </c>
-      <c r="F134" t="s">
-        <v>260</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -7610,10 +7544,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
+        <v>260</v>
+      </c>
+      <c r="F135" t="s">
         <v>261</v>
-      </c>
-      <c r="F135" t="s">
-        <v>262</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -7639,10 +7573,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
+        <v>262</v>
+      </c>
+      <c r="F136" t="s">
         <v>263</v>
-      </c>
-      <c r="F136" t="s">
-        <v>264</v>
       </c>
       <c r="G136" t="n">
         <v>14</v>
@@ -7668,10 +7602,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F137" t="s">
-        <v>266</v>
+        <v>48</v>
       </c>
       <c r="G137" t="n">
         <v>4</v>
@@ -7697,10 +7631,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F138" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G138" t="n">
         <v>24</v>
@@ -7726,10 +7660,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
+        <v>236</v>
+      </c>
+      <c r="F139" t="s">
         <v>237</v>
-      </c>
-      <c r="F139" t="s">
-        <v>238</v>
       </c>
       <c r="G139" t="n">
         <v>4</v>
@@ -7755,10 +7689,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F140" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -7784,10 +7718,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F141" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -7813,10 +7747,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F142" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G142" t="n">
         <v>2</v>
@@ -7842,10 +7776,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F143" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G143" t="n">
         <v>11</v>
@@ -7871,10 +7805,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F144" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G144" t="n">
         <v>2</v>
@@ -7900,10 +7834,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F145" t="s">
-        <v>280</v>
+        <v>50</v>
       </c>
       <c r="G145" t="n">
         <v>3</v>
@@ -7929,10 +7863,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F146" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G146" t="n">
         <v>2</v>
@@ -7958,10 +7892,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F147" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G147" t="n">
         <v>6</v>
@@ -7987,10 +7921,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F148" t="s">
-        <v>286</v>
+        <v>263</v>
       </c>
       <c r="G148" t="n">
         <v>4</v>
@@ -8016,10 +7950,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="F149" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -8045,10 +7979,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="F150" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -8074,10 +8008,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="F151" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -8103,10 +8037,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F152" t="s">
-        <v>294</v>
+        <v>36</v>
       </c>
       <c r="G152" t="n">
         <v>7</v>
@@ -8132,10 +8066,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="F153" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -8161,10 +8095,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="F154" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="G154" t="n">
         <v>3</v>
@@ -8190,10 +8124,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="F155" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="G155" t="n">
         <v>6</v>
@@ -8248,10 +8182,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="F157" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -8277,10 +8211,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="F158" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="G158" t="n">
         <v>3</v>
@@ -8306,10 +8240,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="F159" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -8335,10 +8269,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="F160" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -8364,10 +8298,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="F161" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="G161" t="n">
         <v>44</v>
@@ -8393,10 +8327,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="F162" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -8422,10 +8356,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="F163" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -8451,10 +8385,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="F164" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -8480,10 +8414,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="F165" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -8509,10 +8443,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="F166" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -8538,10 +8472,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="F167" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -8567,10 +8501,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="F168" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="G168" t="n">
         <v>2</v>
@@ -8625,10 +8559,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="F170" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="G170" t="n">
         <v>8</v>
@@ -8654,10 +8588,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="F171" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="G171" t="n">
         <v>2</v>
@@ -8683,10 +8617,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="F172" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="G172" t="n">
         <v>2</v>
@@ -8712,10 +8646,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="F173" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="G173" t="n">
         <v>2</v>
@@ -8770,10 +8704,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="F175" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="G175" t="n">
         <v>2</v>
@@ -8799,10 +8733,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="F176" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -8857,10 +8791,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="F178" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="G178" t="n">
         <v>2</v>
@@ -8886,10 +8820,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="F179" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -8944,10 +8878,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="F181" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -8973,10 +8907,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="F182" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -9002,10 +8936,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="F183" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -9031,10 +8965,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="F184" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -9060,10 +8994,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="F185" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -9089,10 +9023,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="F186" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="G186" t="n">
         <v>2</v>
@@ -9118,10 +9052,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="F187" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="G187" t="n">
         <v>26</v>
@@ -9147,10 +9081,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="F188" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -9176,10 +9110,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="F189" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -9234,10 +9168,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F191" t="s">
-        <v>294</v>
+        <v>36</v>
       </c>
       <c r="G191" t="n">
         <v>3</v>
@@ -9263,10 +9197,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="F192" t="s">
-        <v>360</v>
+        <v>44</v>
       </c>
       <c r="G192" t="n">
         <v>3</v>
@@ -9292,10 +9226,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="F193" t="s">
-        <v>362</v>
+        <v>40</v>
       </c>
       <c r="G193" t="n">
         <v>2</v>
@@ -9379,10 +9313,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="F196" t="s">
-        <v>364</v>
+        <v>144</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -9408,10 +9342,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="F197" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -9437,10 +9371,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F198" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="G198" t="n">
         <v>2</v>
@@ -9466,10 +9400,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="F199" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -9495,10 +9429,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="F200" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -9553,10 +9487,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="F202" t="s">
-        <v>374</v>
+        <v>136</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -9611,10 +9545,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="F204" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="G204" t="n">
         <v>3</v>
@@ -9640,10 +9574,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="F205" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -9669,10 +9603,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="F206" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -9756,10 +9690,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="F209" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="G209" t="n">
         <v>2</v>
@@ -9785,10 +9719,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="F210" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -9814,10 +9748,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="F211" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -9872,10 +9806,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="F213" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="G213" t="n">
         <v>2</v>
@@ -9901,10 +9835,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="F214" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="G214" t="n">
         <v>2</v>
@@ -9930,10 +9864,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="F215" t="s">
-        <v>392</v>
+        <v>266</v>
       </c>
       <c r="G215" t="n">
         <v>2</v>
@@ -9959,10 +9893,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="F216" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="G216" t="n">
         <v>2</v>
@@ -9988,10 +9922,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="F217" t="s">
-        <v>396</v>
+        <v>362</v>
       </c>
       <c r="G217" t="n">
         <v>3</v>
@@ -10017,10 +9951,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="F218" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="G218" t="n">
         <v>2</v>
@@ -10046,10 +9980,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="F219" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="G219" t="n">
         <v>8</v>
@@ -10075,10 +10009,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="F220" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="G220" t="n">
         <v>14</v>
@@ -10104,10 +10038,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="F221" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="G221" t="n">
         <v>63</v>
@@ -10133,10 +10067,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="F222" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="G222" t="n">
         <v>5</v>
@@ -10162,10 +10096,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
       <c r="F223" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -10191,10 +10125,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="F224" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="G224" t="n">
         <v>2</v>
@@ -10220,10 +10154,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
       <c r="F225" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="G225" t="n">
         <v>2</v>
@@ -10249,10 +10183,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="F226" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -10278,10 +10212,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="F227" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="G227" t="n">
         <v>2</v>
@@ -10307,10 +10241,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="F228" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -10336,10 +10270,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>417</v>
+        <v>406</v>
       </c>
       <c r="F229" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
       <c r="G229" t="n">
         <v>2</v>
@@ -10365,10 +10299,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="F230" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="G230" t="n">
         <v>3</v>
@@ -10394,10 +10328,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>421</v>
+        <v>410</v>
       </c>
       <c r="F231" t="s">
-        <v>422</v>
+        <v>411</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -10452,10 +10386,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="F233" t="s">
-        <v>424</v>
+        <v>62</v>
       </c>
       <c r="G233" t="n">
         <v>2</v>
@@ -10481,10 +10415,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="F234" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -10510,10 +10444,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="F235" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -10539,10 +10473,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F236" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -10568,10 +10502,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="F237" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -10597,10 +10531,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
       <c r="F238" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -10626,10 +10560,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="F239" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="G239" t="n">
         <v>41</v>
@@ -10655,10 +10589,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
       <c r="F240" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -10684,10 +10618,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
       <c r="F241" t="s">
-        <v>438</v>
+        <v>426</v>
       </c>
       <c r="G241" t="n">
         <v>2</v>
@@ -10713,10 +10647,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>439</v>
+        <v>427</v>
       </c>
       <c r="F242" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -10742,10 +10676,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="F243" t="s">
-        <v>442</v>
+        <v>430</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -10771,10 +10705,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="F244" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -10800,10 +10734,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
       <c r="F245" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -10829,10 +10763,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
       <c r="F246" t="s">
-        <v>448</v>
+        <v>436</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -10858,10 +10792,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
       <c r="F247" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="G247" t="n">
         <v>2</v>
@@ -10887,10 +10821,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="F248" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="G248" t="n">
         <v>6</v>
@@ -10916,10 +10850,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="F249" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -10945,10 +10879,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="F250" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -10974,10 +10908,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
       <c r="F251" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -11003,10 +10937,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="F252" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -11032,10 +10966,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="F253" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -11061,10 +10995,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="F254" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
       <c r="G254" t="n">
         <v>2</v>
@@ -11090,10 +11024,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="F255" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -11119,10 +11053,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="F256" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -11148,10 +11082,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="F257" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="G257" t="n">
         <v>43</v>
@@ -11177,10 +11111,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="F258" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -11206,10 +11140,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="F259" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -11235,10 +11169,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="F260" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="G260" t="n">
         <v>9</v>
@@ -11264,10 +11198,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="F261" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="G261" t="n">
         <v>7</v>
@@ -11293,10 +11227,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="F262" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -11322,10 +11256,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
       <c r="F263" t="s">
-        <v>478</v>
+        <v>466</v>
       </c>
       <c r="G263" t="n">
         <v>5</v>
@@ -11351,10 +11285,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="F264" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="G264" t="n">
         <v>4</v>
@@ -11380,10 +11314,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="F265" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="G265" t="n">
         <v>12</v>
@@ -11409,10 +11343,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="F266" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -11438,10 +11372,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="F267" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -11467,10 +11401,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="F268" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -11496,10 +11430,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>487</v>
+        <v>475</v>
       </c>
       <c r="F269" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -11525,10 +11459,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
       <c r="F270" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -11554,10 +11488,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="F271" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
       <c r="G271" t="n">
         <v>2</v>
@@ -11583,10 +11517,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>493</v>
+        <v>481</v>
       </c>
       <c r="F272" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
       <c r="G272" t="n">
         <v>4</v>
@@ -11612,10 +11546,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>495</v>
+        <v>483</v>
       </c>
       <c r="F273" t="s">
-        <v>496</v>
+        <v>484</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -11641,10 +11575,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>497</v>
+        <v>485</v>
       </c>
       <c r="F274" t="s">
-        <v>498</v>
+        <v>486</v>
       </c>
       <c r="G274" t="n">
         <v>3</v>
@@ -11670,10 +11604,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="F275" t="s">
-        <v>500</v>
+        <v>488</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -11699,10 +11633,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>501</v>
+        <v>489</v>
       </c>
       <c r="F276" t="s">
-        <v>502</v>
+        <v>490</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -11728,10 +11662,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>503</v>
+        <v>491</v>
       </c>
       <c r="F277" t="s">
-        <v>504</v>
+        <v>492</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -11757,10 +11691,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="F278" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -11786,10 +11720,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="F279" t="s">
-        <v>508</v>
+        <v>496</v>
       </c>
       <c r="G279" t="n">
         <v>2</v>
@@ -11815,10 +11749,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>509</v>
+        <v>497</v>
       </c>
       <c r="F280" t="s">
-        <v>510</v>
+        <v>498</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -11844,10 +11778,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="F281" t="s">
-        <v>512</v>
+        <v>500</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -11873,10 +11807,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>513</v>
+        <v>501</v>
       </c>
       <c r="F282" t="s">
-        <v>514</v>
+        <v>502</v>
       </c>
       <c r="G282" t="n">
         <v>3</v>
@@ -11902,10 +11836,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>515</v>
+        <v>503</v>
       </c>
       <c r="F283" t="s">
-        <v>516</v>
+        <v>504</v>
       </c>
       <c r="G283" t="n">
         <v>3</v>
@@ -11931,10 +11865,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
       <c r="F284" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -11960,10 +11894,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>519</v>
+        <v>507</v>
       </c>
       <c r="F285" t="s">
-        <v>520</v>
+        <v>508</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -11989,10 +11923,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>521</v>
+        <v>509</v>
       </c>
       <c r="F286" t="s">
-        <v>522</v>
+        <v>510</v>
       </c>
       <c r="G286" t="n">
         <v>3</v>
@@ -12018,10 +11952,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>523</v>
+        <v>511</v>
       </c>
       <c r="F287" t="s">
-        <v>524</v>
+        <v>512</v>
       </c>
       <c r="G287" t="n">
         <v>3</v>
@@ -12047,10 +11981,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>525</v>
+        <v>513</v>
       </c>
       <c r="F288" t="s">
-        <v>526</v>
+        <v>514</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -12076,10 +12010,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>527</v>
+        <v>515</v>
       </c>
       <c r="F289" t="s">
-        <v>528</v>
+        <v>516</v>
       </c>
       <c r="G289" t="n">
         <v>13</v>
@@ -12105,10 +12039,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>529</v>
+        <v>517</v>
       </c>
       <c r="F290" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="G290" t="n">
         <v>2</v>
@@ -12134,10 +12068,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>531</v>
+        <v>519</v>
       </c>
       <c r="F291" t="s">
-        <v>532</v>
+        <v>520</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -12221,10 +12155,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>533</v>
+        <v>521</v>
       </c>
       <c r="F294" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="G294" t="n">
         <v>2</v>
@@ -12250,10 +12184,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>535</v>
+        <v>523</v>
       </c>
       <c r="F295" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -12279,10 +12213,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>527</v>
+        <v>515</v>
       </c>
       <c r="F296" t="s">
-        <v>528</v>
+        <v>516</v>
       </c>
       <c r="G296" t="n">
         <v>2</v>
@@ -12308,10 +12242,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="F297" t="s">
-        <v>538</v>
+        <v>526</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -12337,10 +12271,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>539</v>
+        <v>527</v>
       </c>
       <c r="F298" t="s">
-        <v>540</v>
+        <v>528</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -12366,10 +12300,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>541</v>
+        <v>529</v>
       </c>
       <c r="F299" t="s">
-        <v>542</v>
+        <v>530</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -12395,10 +12329,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>543</v>
+        <v>531</v>
       </c>
       <c r="F300" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -12424,10 +12358,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
       <c r="F301" t="s">
-        <v>546</v>
+        <v>182</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -12453,10 +12387,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>547</v>
+        <v>534</v>
       </c>
       <c r="F302" t="s">
-        <v>548</v>
+        <v>180</v>
       </c>
       <c r="G302" t="n">
         <v>3</v>
@@ -12482,10 +12416,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>549</v>
+        <v>535</v>
       </c>
       <c r="F303" t="s">
-        <v>550</v>
+        <v>536</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -12511,10 +12445,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>551</v>
+        <v>537</v>
       </c>
       <c r="F304" t="s">
-        <v>552</v>
+        <v>538</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -12569,10 +12503,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>553</v>
+        <v>539</v>
       </c>
       <c r="F306" t="s">
-        <v>554</v>
+        <v>540</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -12598,10 +12532,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>555</v>
+        <v>541</v>
       </c>
       <c r="F307" t="s">
-        <v>556</v>
+        <v>542</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -12627,10 +12561,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>557</v>
+        <v>543</v>
       </c>
       <c r="F308" t="s">
-        <v>558</v>
+        <v>544</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -12656,10 +12590,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>559</v>
+        <v>545</v>
       </c>
       <c r="F309" t="s">
-        <v>560</v>
+        <v>546</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -12714,10 +12648,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>561</v>
+        <v>547</v>
       </c>
       <c r="F311" t="s">
-        <v>562</v>
+        <v>548</v>
       </c>
       <c r="G311" t="n">
         <v>7</v>
@@ -12743,10 +12677,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>563</v>
+        <v>549</v>
       </c>
       <c r="F312" t="s">
-        <v>564</v>
+        <v>550</v>
       </c>
       <c r="G312" t="n">
         <v>4</v>
@@ -12772,10 +12706,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>565</v>
+        <v>551</v>
       </c>
       <c r="F313" t="s">
-        <v>566</v>
+        <v>552</v>
       </c>
       <c r="G313" t="n">
         <v>2</v>
@@ -12801,10 +12735,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>567</v>
+        <v>553</v>
       </c>
       <c r="F314" t="s">
-        <v>568</v>
+        <v>158</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -12830,10 +12764,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>569</v>
+        <v>554</v>
       </c>
       <c r="F315" t="s">
-        <v>570</v>
+        <v>555</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -12859,10 +12793,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>571</v>
+        <v>556</v>
       </c>
       <c r="F316" t="s">
-        <v>572</v>
+        <v>557</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -12888,10 +12822,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>573</v>
+        <v>558</v>
       </c>
       <c r="F317" t="s">
-        <v>574</v>
+        <v>88</v>
       </c>
       <c r="G317" t="n">
         <v>2</v>
@@ -12917,10 +12851,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>575</v>
+        <v>559</v>
       </c>
       <c r="F318" t="s">
-        <v>576</v>
+        <v>560</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -12946,10 +12880,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>577</v>
+        <v>561</v>
       </c>
       <c r="F319" t="s">
-        <v>578</v>
+        <v>562</v>
       </c>
       <c r="G319" t="n">
         <v>2</v>
@@ -12975,10 +12909,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>579</v>
+        <v>563</v>
       </c>
       <c r="F320" t="s">
-        <v>580</v>
+        <v>564</v>
       </c>
       <c r="G320" t="n">
         <v>8</v>
@@ -13004,10 +12938,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="F321" t="s">
-        <v>374</v>
+        <v>136</v>
       </c>
       <c r="G321" t="n">
         <v>7</v>
@@ -13062,10 +12996,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>581</v>
+        <v>565</v>
       </c>
       <c r="F323" t="s">
-        <v>582</v>
+        <v>566</v>
       </c>
       <c r="G323" t="n">
         <v>2</v>
@@ -13120,10 +13054,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>583</v>
+        <v>567</v>
       </c>
       <c r="F325" t="s">
-        <v>584</v>
+        <v>568</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
@@ -13149,10 +13083,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>585</v>
+        <v>569</v>
       </c>
       <c r="F326" t="s">
-        <v>586</v>
+        <v>570</v>
       </c>
       <c r="G326" t="n">
         <v>6</v>
@@ -13178,10 +13112,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>587</v>
+        <v>571</v>
       </c>
       <c r="F327" t="s">
-        <v>588</v>
+        <v>572</v>
       </c>
       <c r="G327" t="n">
         <v>2</v>
@@ -13207,10 +13141,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>589</v>
+        <v>573</v>
       </c>
       <c r="F328" t="s">
-        <v>590</v>
+        <v>574</v>
       </c>
       <c r="G328" t="n">
         <v>1</v>
@@ -13236,10 +13170,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>591</v>
+        <v>575</v>
       </c>
       <c r="F329" t="s">
-        <v>592</v>
+        <v>576</v>
       </c>
       <c r="G329" t="n">
         <v>2</v>
@@ -13265,10 +13199,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>593</v>
+        <v>577</v>
       </c>
       <c r="F330" t="s">
-        <v>594</v>
+        <v>578</v>
       </c>
       <c r="G330" t="n">
         <v>8</v>
@@ -13294,10 +13228,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>595</v>
+        <v>579</v>
       </c>
       <c r="F331" t="s">
-        <v>596</v>
+        <v>580</v>
       </c>
       <c r="G331" t="n">
         <v>1</v>
@@ -13323,10 +13257,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>597</v>
+        <v>581</v>
       </c>
       <c r="F332" t="s">
-        <v>598</v>
+        <v>582</v>
       </c>
       <c r="G332" t="n">
         <v>2</v>
@@ -13381,10 +13315,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>599</v>
+        <v>583</v>
       </c>
       <c r="F334" t="s">
-        <v>600</v>
+        <v>584</v>
       </c>
       <c r="G334" t="n">
         <v>1</v>
@@ -13410,10 +13344,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>601</v>
+        <v>585</v>
       </c>
       <c r="F335" t="s">
-        <v>602</v>
+        <v>586</v>
       </c>
       <c r="G335" t="n">
         <v>4</v>
@@ -13439,10 +13373,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>603</v>
+        <v>587</v>
       </c>
       <c r="F336" t="s">
-        <v>604</v>
+        <v>588</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
@@ -13468,10 +13402,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>605</v>
+        <v>589</v>
       </c>
       <c r="F337" t="s">
-        <v>606</v>
+        <v>590</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -13497,10 +13431,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>607</v>
+        <v>591</v>
       </c>
       <c r="F338" t="s">
-        <v>608</v>
+        <v>592</v>
       </c>
       <c r="G338" t="n">
         <v>1</v>
@@ -13526,10 +13460,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>609</v>
+        <v>593</v>
       </c>
       <c r="F339" t="s">
-        <v>610</v>
+        <v>594</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
@@ -13555,10 +13489,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>611</v>
+        <v>595</v>
       </c>
       <c r="F340" t="s">
-        <v>612</v>
+        <v>596</v>
       </c>
       <c r="G340" t="n">
         <v>1</v>
@@ -13584,10 +13518,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>613</v>
+        <v>597</v>
       </c>
       <c r="F341" t="s">
-        <v>614</v>
+        <v>598</v>
       </c>
       <c r="G341" t="n">
         <v>1</v>
@@ -13613,10 +13547,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="F342" t="s">
-        <v>616</v>
+        <v>600</v>
       </c>
       <c r="G342" t="n">
         <v>1</v>
@@ -13642,10 +13576,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>617</v>
+        <v>601</v>
       </c>
       <c r="F343" t="s">
-        <v>618</v>
+        <v>602</v>
       </c>
       <c r="G343" t="n">
         <v>1</v>
@@ -13671,10 +13605,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
       <c r="F344" t="s">
-        <v>620</v>
+        <v>604</v>
       </c>
       <c r="G344" t="n">
         <v>2</v>
@@ -13700,10 +13634,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>621</v>
+        <v>605</v>
       </c>
       <c r="F345" t="s">
-        <v>622</v>
+        <v>606</v>
       </c>
       <c r="G345" t="n">
         <v>1</v>
@@ -13729,10 +13663,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>623</v>
+        <v>607</v>
       </c>
       <c r="F346" t="s">
-        <v>624</v>
+        <v>309</v>
       </c>
       <c r="G346" t="n">
         <v>2</v>
@@ -13758,10 +13692,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>625</v>
+        <v>608</v>
       </c>
       <c r="F347" t="s">
-        <v>626</v>
+        <v>609</v>
       </c>
       <c r="G347" t="n">
         <v>1</v>
@@ -13787,10 +13721,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>627</v>
+        <v>610</v>
       </c>
       <c r="F348" t="s">
-        <v>628</v>
+        <v>611</v>
       </c>
       <c r="G348" t="n">
         <v>1</v>
@@ -13816,10 +13750,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>629</v>
+        <v>612</v>
       </c>
       <c r="F349" t="s">
-        <v>630</v>
+        <v>613</v>
       </c>
       <c r="G349" t="n">
         <v>2</v>
@@ -13845,10 +13779,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>631</v>
+        <v>614</v>
       </c>
       <c r="F350" t="s">
-        <v>632</v>
+        <v>615</v>
       </c>
       <c r="G350" t="n">
         <v>1</v>
@@ -13874,10 +13808,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>633</v>
+        <v>616</v>
       </c>
       <c r="F351" t="s">
-        <v>634</v>
+        <v>617</v>
       </c>
       <c r="G351" t="n">
         <v>2</v>
@@ -13932,10 +13866,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>635</v>
+        <v>618</v>
       </c>
       <c r="F353" t="s">
-        <v>636</v>
+        <v>619</v>
       </c>
       <c r="G353" t="n">
         <v>1</v>
@@ -13961,10 +13895,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>637</v>
+        <v>620</v>
       </c>
       <c r="F354" t="s">
-        <v>638</v>
+        <v>621</v>
       </c>
       <c r="G354" t="n">
         <v>1</v>
@@ -13990,10 +13924,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>639</v>
+        <v>622</v>
       </c>
       <c r="F355" t="s">
-        <v>640</v>
+        <v>623</v>
       </c>
       <c r="G355" t="n">
         <v>5</v>
@@ -14019,10 +13953,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>641</v>
+        <v>624</v>
       </c>
       <c r="F356" t="s">
-        <v>642</v>
+        <v>625</v>
       </c>
       <c r="G356" t="n">
         <v>1</v>
@@ -14048,10 +13982,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>643</v>
+        <v>626</v>
       </c>
       <c r="F357" t="s">
-        <v>644</v>
+        <v>627</v>
       </c>
       <c r="G357" t="n">
         <v>8</v>
@@ -14077,10 +14011,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>645</v>
+        <v>628</v>
       </c>
       <c r="F358" t="s">
-        <v>646</v>
+        <v>116</v>
       </c>
       <c r="G358" t="n">
         <v>1</v>
@@ -14106,10 +14040,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>647</v>
+        <v>629</v>
       </c>
       <c r="F359" t="s">
-        <v>648</v>
+        <v>630</v>
       </c>
       <c r="G359" t="n">
         <v>7</v>
@@ -14135,10 +14069,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>649</v>
+        <v>631</v>
       </c>
       <c r="F360" t="s">
-        <v>650</v>
+        <v>632</v>
       </c>
       <c r="G360" t="n">
         <v>2</v>
@@ -14164,10 +14098,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>651</v>
+        <v>633</v>
       </c>
       <c r="F361" t="s">
-        <v>652</v>
+        <v>634</v>
       </c>
       <c r="G361" t="n">
         <v>2</v>
@@ -14193,10 +14127,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>653</v>
+        <v>635</v>
       </c>
       <c r="F362" t="s">
-        <v>654</v>
+        <v>636</v>
       </c>
       <c r="G362" t="n">
         <v>2</v>
@@ -14222,10 +14156,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>655</v>
+        <v>637</v>
       </c>
       <c r="F363" t="s">
-        <v>656</v>
+        <v>638</v>
       </c>
       <c r="G363" t="n">
         <v>1</v>
@@ -14251,10 +14185,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>657</v>
+        <v>639</v>
       </c>
       <c r="F364" t="s">
-        <v>658</v>
+        <v>150</v>
       </c>
       <c r="G364" t="n">
         <v>2</v>
@@ -14280,10 +14214,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>659</v>
+        <v>640</v>
       </c>
       <c r="F365" t="s">
-        <v>660</v>
+        <v>641</v>
       </c>
       <c r="G365" t="n">
         <v>1</v>
@@ -14338,10 +14272,10 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
-        <v>661</v>
+        <v>642</v>
       </c>
       <c r="F367" t="s">
-        <v>662</v>
+        <v>186</v>
       </c>
       <c r="G367" t="n">
         <v>5</v>
@@ -14367,10 +14301,10 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
-        <v>663</v>
+        <v>643</v>
       </c>
       <c r="F368" t="s">
-        <v>664</v>
+        <v>644</v>
       </c>
       <c r="G368" t="n">
         <v>1</v>
@@ -14396,10 +14330,10 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
-        <v>665</v>
+        <v>645</v>
       </c>
       <c r="F369" t="s">
-        <v>666</v>
+        <v>646</v>
       </c>
       <c r="G369" t="n">
         <v>1</v>
@@ -14425,10 +14359,10 @@
         <v>369</v>
       </c>
       <c r="E370" t="s">
-        <v>667</v>
+        <v>647</v>
       </c>
       <c r="F370" t="s">
-        <v>668</v>
+        <v>648</v>
       </c>
       <c r="G370" t="n">
         <v>1</v>
@@ -14454,10 +14388,10 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
-        <v>669</v>
+        <v>649</v>
       </c>
       <c r="F371" t="s">
-        <v>670</v>
+        <v>650</v>
       </c>
       <c r="G371" t="n">
         <v>2</v>
@@ -14483,10 +14417,10 @@
         <v>371</v>
       </c>
       <c r="E372" t="s">
-        <v>671</v>
+        <v>651</v>
       </c>
       <c r="F372" t="s">
-        <v>672</v>
+        <v>652</v>
       </c>
       <c r="G372" t="n">
         <v>2</v>
@@ -14512,10 +14446,10 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
-        <v>673</v>
+        <v>653</v>
       </c>
       <c r="F373" t="s">
-        <v>674</v>
+        <v>654</v>
       </c>
       <c r="G373" t="n">
         <v>1</v>
@@ -14541,10 +14475,10 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
-        <v>675</v>
+        <v>655</v>
       </c>
       <c r="F374" t="s">
-        <v>676</v>
+        <v>656</v>
       </c>
       <c r="G374" t="n">
         <v>1</v>
@@ -14570,10 +14504,10 @@
         <v>374</v>
       </c>
       <c r="E375" t="s">
-        <v>677</v>
+        <v>657</v>
       </c>
       <c r="F375" t="s">
-        <v>678</v>
+        <v>658</v>
       </c>
       <c r="G375" t="n">
         <v>3</v>
@@ -14599,10 +14533,10 @@
         <v>375</v>
       </c>
       <c r="E376" t="s">
-        <v>679</v>
+        <v>659</v>
       </c>
       <c r="F376" t="s">
-        <v>680</v>
+        <v>660</v>
       </c>
       <c r="G376" t="n">
         <v>5</v>
@@ -14628,10 +14562,10 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="F377" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="G377" t="n">
         <v>1</v>
@@ -14657,10 +14591,10 @@
         <v>377</v>
       </c>
       <c r="E378" t="s">
-        <v>681</v>
+        <v>661</v>
       </c>
       <c r="F378" t="s">
-        <v>682</v>
+        <v>662</v>
       </c>
       <c r="G378" t="n">
         <v>1</v>
@@ -14686,10 +14620,10 @@
         <v>378</v>
       </c>
       <c r="E379" t="s">
-        <v>683</v>
+        <v>663</v>
       </c>
       <c r="F379" t="s">
-        <v>684</v>
+        <v>664</v>
       </c>
       <c r="G379" t="n">
         <v>3</v>
@@ -14715,10 +14649,10 @@
         <v>379</v>
       </c>
       <c r="E380" t="s">
-        <v>685</v>
+        <v>665</v>
       </c>
       <c r="F380" t="s">
-        <v>686</v>
+        <v>24</v>
       </c>
       <c r="G380" t="n">
         <v>1</v>
@@ -14744,10 +14678,10 @@
         <v>380</v>
       </c>
       <c r="E381" t="s">
-        <v>687</v>
+        <v>666</v>
       </c>
       <c r="F381" t="s">
-        <v>688</v>
+        <v>667</v>
       </c>
       <c r="G381" t="n">
         <v>1</v>
@@ -14802,10 +14736,10 @@
         <v>382</v>
       </c>
       <c r="E383" t="s">
-        <v>689</v>
+        <v>668</v>
       </c>
       <c r="F383" t="s">
-        <v>690</v>
+        <v>669</v>
       </c>
       <c r="G383" t="n">
         <v>2</v>
@@ -14831,10 +14765,10 @@
         <v>383</v>
       </c>
       <c r="E384" t="s">
-        <v>691</v>
+        <v>670</v>
       </c>
       <c r="F384" t="s">
-        <v>692</v>
+        <v>671</v>
       </c>
       <c r="G384" t="n">
         <v>3</v>
@@ -14860,10 +14794,10 @@
         <v>384</v>
       </c>
       <c r="E385" t="s">
-        <v>693</v>
+        <v>672</v>
       </c>
       <c r="F385" t="s">
-        <v>694</v>
+        <v>673</v>
       </c>
       <c r="G385" t="n">
         <v>2</v>
@@ -14889,10 +14823,10 @@
         <v>385</v>
       </c>
       <c r="E386" t="s">
-        <v>695</v>
+        <v>674</v>
       </c>
       <c r="F386" t="s">
-        <v>696</v>
+        <v>675</v>
       </c>
       <c r="G386" t="n">
         <v>3</v>
@@ -14918,10 +14852,10 @@
         <v>386</v>
       </c>
       <c r="E387" t="s">
-        <v>697</v>
+        <v>676</v>
       </c>
       <c r="F387" t="s">
-        <v>698</v>
+        <v>677</v>
       </c>
       <c r="G387" t="n">
         <v>2</v>
@@ -14947,10 +14881,10 @@
         <v>387</v>
       </c>
       <c r="E388" t="s">
-        <v>699</v>
+        <v>678</v>
       </c>
       <c r="F388" t="s">
-        <v>700</v>
+        <v>679</v>
       </c>
       <c r="G388" t="n">
         <v>2</v>
@@ -14976,10 +14910,10 @@
         <v>388</v>
       </c>
       <c r="E389" t="s">
-        <v>697</v>
+        <v>676</v>
       </c>
       <c r="F389" t="s">
-        <v>698</v>
+        <v>677</v>
       </c>
       <c r="G389" t="n">
         <v>1</v>
@@ -15005,10 +14939,10 @@
         <v>389</v>
       </c>
       <c r="E390" t="s">
-        <v>701</v>
+        <v>680</v>
       </c>
       <c r="F390" t="s">
-        <v>702</v>
+        <v>681</v>
       </c>
       <c r="G390" t="n">
         <v>1</v>
@@ -15034,10 +14968,10 @@
         <v>390</v>
       </c>
       <c r="E391" t="s">
-        <v>703</v>
+        <v>682</v>
       </c>
       <c r="F391" t="s">
-        <v>704</v>
+        <v>683</v>
       </c>
       <c r="G391" t="n">
         <v>1</v>
@@ -15063,10 +14997,10 @@
         <v>391</v>
       </c>
       <c r="E392" t="s">
-        <v>705</v>
+        <v>684</v>
       </c>
       <c r="F392" t="s">
-        <v>706</v>
+        <v>685</v>
       </c>
       <c r="G392" t="n">
         <v>1</v>
@@ -15092,10 +15026,10 @@
         <v>392</v>
       </c>
       <c r="E393" t="s">
-        <v>707</v>
+        <v>686</v>
       </c>
       <c r="F393" t="s">
-        <v>708</v>
+        <v>687</v>
       </c>
       <c r="G393" t="n">
         <v>1</v>
@@ -15121,10 +15055,10 @@
         <v>393</v>
       </c>
       <c r="E394" t="s">
-        <v>709</v>
+        <v>688</v>
       </c>
       <c r="F394" t="s">
-        <v>710</v>
+        <v>689</v>
       </c>
       <c r="G394" t="n">
         <v>11</v>
@@ -15150,10 +15084,10 @@
         <v>394</v>
       </c>
       <c r="E395" t="s">
-        <v>711</v>
+        <v>690</v>
       </c>
       <c r="F395" t="s">
-        <v>712</v>
+        <v>691</v>
       </c>
       <c r="G395" t="n">
         <v>1</v>
@@ -15179,10 +15113,10 @@
         <v>395</v>
       </c>
       <c r="E396" t="s">
-        <v>713</v>
+        <v>692</v>
       </c>
       <c r="F396" t="s">
-        <v>714</v>
+        <v>693</v>
       </c>
       <c r="G396" t="n">
         <v>1</v>
@@ -15208,10 +15142,10 @@
         <v>396</v>
       </c>
       <c r="E397" t="s">
-        <v>715</v>
+        <v>694</v>
       </c>
       <c r="F397" t="s">
-        <v>716</v>
+        <v>695</v>
       </c>
       <c r="G397" t="n">
         <v>2</v>
@@ -15237,10 +15171,10 @@
         <v>397</v>
       </c>
       <c r="E398" t="s">
-        <v>717</v>
+        <v>696</v>
       </c>
       <c r="F398" t="s">
-        <v>718</v>
+        <v>697</v>
       </c>
       <c r="G398" t="n">
         <v>1</v>
@@ -15266,10 +15200,10 @@
         <v>398</v>
       </c>
       <c r="E399" t="s">
-        <v>719</v>
+        <v>698</v>
       </c>
       <c r="F399" t="s">
-        <v>720</v>
+        <v>699</v>
       </c>
       <c r="G399" t="n">
         <v>3</v>
@@ -15295,10 +15229,10 @@
         <v>399</v>
       </c>
       <c r="E400" t="s">
-        <v>721</v>
+        <v>700</v>
       </c>
       <c r="F400" t="s">
-        <v>722</v>
+        <v>701</v>
       </c>
       <c r="G400" t="n">
         <v>3</v>
@@ -15324,10 +15258,10 @@
         <v>400</v>
       </c>
       <c r="E401" t="s">
-        <v>723</v>
+        <v>702</v>
       </c>
       <c r="F401" t="s">
-        <v>724</v>
+        <v>703</v>
       </c>
       <c r="G401" t="n">
         <v>1</v>
@@ -15353,10 +15287,10 @@
         <v>401</v>
       </c>
       <c r="E402" t="s">
-        <v>725</v>
+        <v>704</v>
       </c>
       <c r="F402" t="s">
-        <v>726</v>
+        <v>705</v>
       </c>
       <c r="G402" t="n">
         <v>1</v>
@@ -15382,10 +15316,10 @@
         <v>402</v>
       </c>
       <c r="E403" t="s">
-        <v>727</v>
+        <v>706</v>
       </c>
       <c r="F403" t="s">
-        <v>728</v>
+        <v>707</v>
       </c>
       <c r="G403" t="n">
         <v>2</v>
@@ -15411,10 +15345,10 @@
         <v>403</v>
       </c>
       <c r="E404" t="s">
-        <v>729</v>
+        <v>708</v>
       </c>
       <c r="F404" t="s">
-        <v>730</v>
+        <v>709</v>
       </c>
       <c r="G404" t="n">
         <v>1</v>
@@ -15440,10 +15374,10 @@
         <v>404</v>
       </c>
       <c r="E405" t="s">
-        <v>731</v>
+        <v>710</v>
       </c>
       <c r="F405" t="s">
-        <v>732</v>
+        <v>711</v>
       </c>
       <c r="G405" t="n">
         <v>4</v>
@@ -15469,10 +15403,10 @@
         <v>405</v>
       </c>
       <c r="E406" t="s">
-        <v>733</v>
+        <v>712</v>
       </c>
       <c r="F406" t="s">
-        <v>734</v>
+        <v>713</v>
       </c>
       <c r="G406" t="n">
         <v>1</v>
@@ -15498,10 +15432,10 @@
         <v>406</v>
       </c>
       <c r="E407" t="s">
-        <v>735</v>
+        <v>714</v>
       </c>
       <c r="F407" t="s">
-        <v>736</v>
+        <v>715</v>
       </c>
       <c r="G407" t="n">
         <v>1</v>
@@ -15527,10 +15461,10 @@
         <v>407</v>
       </c>
       <c r="E408" t="s">
-        <v>737</v>
+        <v>716</v>
       </c>
       <c r="F408" t="s">
-        <v>738</v>
+        <v>717</v>
       </c>
       <c r="G408" t="n">
         <v>1</v>
@@ -15556,10 +15490,10 @@
         <v>408</v>
       </c>
       <c r="E409" t="s">
-        <v>739</v>
+        <v>718</v>
       </c>
       <c r="F409" t="s">
-        <v>740</v>
+        <v>719</v>
       </c>
       <c r="G409" t="n">
         <v>8</v>
@@ -15585,10 +15519,10 @@
         <v>409</v>
       </c>
       <c r="E410" t="s">
-        <v>741</v>
+        <v>720</v>
       </c>
       <c r="F410" t="s">
-        <v>742</v>
+        <v>721</v>
       </c>
       <c r="G410" t="n">
         <v>2</v>
@@ -15614,10 +15548,10 @@
         <v>410</v>
       </c>
       <c r="E411" t="s">
-        <v>743</v>
+        <v>722</v>
       </c>
       <c r="F411" t="s">
-        <v>744</v>
+        <v>723</v>
       </c>
       <c r="G411" t="n">
         <v>1</v>
@@ -15643,10 +15577,10 @@
         <v>411</v>
       </c>
       <c r="E412" t="s">
-        <v>745</v>
+        <v>724</v>
       </c>
       <c r="F412" t="s">
-        <v>746</v>
+        <v>725</v>
       </c>
       <c r="G412" t="n">
         <v>1</v>
@@ -15672,10 +15606,10 @@
         <v>412</v>
       </c>
       <c r="E413" t="s">
-        <v>747</v>
+        <v>726</v>
       </c>
       <c r="F413" t="s">
-        <v>748</v>
+        <v>727</v>
       </c>
       <c r="G413" t="n">
         <v>1</v>
@@ -15701,10 +15635,10 @@
         <v>413</v>
       </c>
       <c r="E414" t="s">
-        <v>749</v>
+        <v>728</v>
       </c>
       <c r="F414" t="s">
-        <v>750</v>
+        <v>729</v>
       </c>
       <c r="G414" t="n">
         <v>1</v>
@@ -15730,10 +15664,10 @@
         <v>414</v>
       </c>
       <c r="E415" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="F415" t="s">
-        <v>752</v>
+        <v>731</v>
       </c>
       <c r="G415" t="n">
         <v>1</v>
@@ -15759,10 +15693,10 @@
         <v>415</v>
       </c>
       <c r="E416" t="s">
-        <v>753</v>
+        <v>732</v>
       </c>
       <c r="F416" t="s">
-        <v>754</v>
+        <v>733</v>
       </c>
       <c r="G416" t="n">
         <v>1</v>
@@ -15788,10 +15722,10 @@
         <v>416</v>
       </c>
       <c r="E417" t="s">
-        <v>755</v>
+        <v>734</v>
       </c>
       <c r="F417" t="s">
-        <v>756</v>
+        <v>735</v>
       </c>
       <c r="G417" t="n">
         <v>7</v>
@@ -15817,10 +15751,10 @@
         <v>417</v>
       </c>
       <c r="E418" t="s">
-        <v>757</v>
+        <v>736</v>
       </c>
       <c r="F418" t="s">
-        <v>758</v>
+        <v>737</v>
       </c>
       <c r="G418" t="n">
         <v>1</v>
@@ -15846,10 +15780,10 @@
         <v>418</v>
       </c>
       <c r="E419" t="s">
-        <v>759</v>
+        <v>738</v>
       </c>
       <c r="F419" t="s">
-        <v>760</v>
+        <v>739</v>
       </c>
       <c r="G419" t="n">
         <v>33</v>
@@ -15875,10 +15809,10 @@
         <v>419</v>
       </c>
       <c r="E420" t="s">
-        <v>761</v>
+        <v>740</v>
       </c>
       <c r="F420" t="s">
-        <v>762</v>
+        <v>741</v>
       </c>
       <c r="G420" t="n">
         <v>1</v>
@@ -15904,10 +15838,10 @@
         <v>420</v>
       </c>
       <c r="E421" t="s">
-        <v>763</v>
+        <v>742</v>
       </c>
       <c r="F421" t="s">
-        <v>764</v>
+        <v>743</v>
       </c>
       <c r="G421" t="n">
         <v>1</v>
@@ -15933,10 +15867,10 @@
         <v>421</v>
       </c>
       <c r="E422" t="s">
-        <v>765</v>
+        <v>744</v>
       </c>
       <c r="F422" t="s">
-        <v>766</v>
+        <v>745</v>
       </c>
       <c r="G422" t="n">
         <v>1</v>
@@ -15962,10 +15896,10 @@
         <v>422</v>
       </c>
       <c r="E423" t="s">
-        <v>767</v>
+        <v>746</v>
       </c>
       <c r="F423" t="s">
-        <v>768</v>
+        <v>747</v>
       </c>
       <c r="G423" t="n">
         <v>1</v>
@@ -15991,10 +15925,10 @@
         <v>423</v>
       </c>
       <c r="E424" t="s">
-        <v>769</v>
+        <v>748</v>
       </c>
       <c r="F424" t="s">
-        <v>770</v>
+        <v>749</v>
       </c>
       <c r="G424" t="n">
         <v>1</v>
@@ -16020,10 +15954,10 @@
         <v>424</v>
       </c>
       <c r="E425" t="s">
-        <v>771</v>
+        <v>750</v>
       </c>
       <c r="F425" t="s">
-        <v>772</v>
+        <v>751</v>
       </c>
       <c r="G425" t="n">
         <v>1</v>
@@ -16049,10 +15983,10 @@
         <v>425</v>
       </c>
       <c r="E426" t="s">
-        <v>773</v>
+        <v>752</v>
       </c>
       <c r="F426" t="s">
-        <v>774</v>
+        <v>753</v>
       </c>
       <c r="G426" t="n">
         <v>1</v>
@@ -16078,10 +16012,10 @@
         <v>426</v>
       </c>
       <c r="E427" t="s">
-        <v>775</v>
+        <v>754</v>
       </c>
       <c r="F427" t="s">
-        <v>776</v>
+        <v>755</v>
       </c>
       <c r="G427" t="n">
         <v>9</v>
@@ -16107,10 +16041,10 @@
         <v>427</v>
       </c>
       <c r="E428" t="s">
-        <v>777</v>
+        <v>756</v>
       </c>
       <c r="F428" t="s">
-        <v>778</v>
+        <v>757</v>
       </c>
       <c r="G428" t="n">
         <v>1</v>
@@ -16136,10 +16070,10 @@
         <v>428</v>
       </c>
       <c r="E429" t="s">
-        <v>779</v>
+        <v>758</v>
       </c>
       <c r="F429" t="s">
-        <v>780</v>
+        <v>759</v>
       </c>
       <c r="G429" t="n">
         <v>2</v>
@@ -16165,10 +16099,10 @@
         <v>429</v>
       </c>
       <c r="E430" t="s">
-        <v>781</v>
+        <v>760</v>
       </c>
       <c r="F430" t="s">
-        <v>782</v>
+        <v>761</v>
       </c>
       <c r="G430" t="n">
         <v>1</v>
@@ -16194,10 +16128,10 @@
         <v>430</v>
       </c>
       <c r="E431" t="s">
+        <v>236</v>
+      </c>
+      <c r="F431" t="s">
         <v>237</v>
-      </c>
-      <c r="F431" t="s">
-        <v>238</v>
       </c>
       <c r="G431" t="n">
         <v>1</v>
@@ -16223,10 +16157,10 @@
         <v>431</v>
       </c>
       <c r="E432" t="s">
-        <v>783</v>
+        <v>762</v>
       </c>
       <c r="F432" t="s">
-        <v>784</v>
+        <v>763</v>
       </c>
       <c r="G432" t="n">
         <v>10</v>
@@ -16252,10 +16186,10 @@
         <v>432</v>
       </c>
       <c r="E433" t="s">
-        <v>785</v>
+        <v>764</v>
       </c>
       <c r="F433" t="s">
-        <v>786</v>
+        <v>765</v>
       </c>
       <c r="G433" t="n">
         <v>2</v>
@@ -16281,10 +16215,10 @@
         <v>433</v>
       </c>
       <c r="E434" t="s">
-        <v>787</v>
+        <v>766</v>
       </c>
       <c r="F434" t="s">
-        <v>788</v>
+        <v>767</v>
       </c>
       <c r="G434" t="n">
         <v>2</v>
@@ -16310,10 +16244,10 @@
         <v>434</v>
       </c>
       <c r="E435" t="s">
-        <v>789</v>
+        <v>768</v>
       </c>
       <c r="F435" t="s">
-        <v>790</v>
+        <v>769</v>
       </c>
       <c r="G435" t="n">
         <v>3</v>
@@ -16339,10 +16273,10 @@
         <v>435</v>
       </c>
       <c r="E436" t="s">
-        <v>791</v>
+        <v>770</v>
       </c>
       <c r="F436" t="s">
-        <v>792</v>
+        <v>771</v>
       </c>
       <c r="G436" t="n">
         <v>2</v>
@@ -16368,10 +16302,10 @@
         <v>436</v>
       </c>
       <c r="E437" t="s">
-        <v>793</v>
+        <v>772</v>
       </c>
       <c r="F437" t="s">
-        <v>794</v>
+        <v>773</v>
       </c>
       <c r="G437" t="n">
         <v>1</v>
@@ -16397,10 +16331,10 @@
         <v>437</v>
       </c>
       <c r="E438" t="s">
-        <v>795</v>
+        <v>774</v>
       </c>
       <c r="F438" t="s">
-        <v>796</v>
+        <v>775</v>
       </c>
       <c r="G438" t="n">
         <v>1</v>
@@ -16426,10 +16360,10 @@
         <v>438</v>
       </c>
       <c r="E439" t="s">
-        <v>797</v>
+        <v>776</v>
       </c>
       <c r="F439" t="s">
-        <v>798</v>
+        <v>777</v>
       </c>
       <c r="G439" t="n">
         <v>1</v>
@@ -16455,10 +16389,10 @@
         <v>439</v>
       </c>
       <c r="E440" t="s">
-        <v>799</v>
+        <v>778</v>
       </c>
       <c r="F440" t="s">
-        <v>800</v>
+        <v>779</v>
       </c>
       <c r="G440" t="n">
         <v>1</v>
@@ -16484,10 +16418,10 @@
         <v>440</v>
       </c>
       <c r="E441" t="s">
-        <v>801</v>
+        <v>780</v>
       </c>
       <c r="F441" t="s">
-        <v>802</v>
+        <v>781</v>
       </c>
       <c r="G441" t="n">
         <v>1</v>
@@ -16513,10 +16447,10 @@
         <v>441</v>
       </c>
       <c r="E442" t="s">
-        <v>803</v>
+        <v>782</v>
       </c>
       <c r="F442" t="s">
-        <v>804</v>
+        <v>783</v>
       </c>
       <c r="G442" t="n">
         <v>1</v>
@@ -16542,10 +16476,10 @@
         <v>442</v>
       </c>
       <c r="E443" t="s">
-        <v>805</v>
+        <v>784</v>
       </c>
       <c r="F443" t="s">
-        <v>806</v>
+        <v>785</v>
       </c>
       <c r="G443" t="n">
         <v>1</v>
@@ -16571,10 +16505,10 @@
         <v>443</v>
       </c>
       <c r="E444" t="s">
-        <v>807</v>
+        <v>786</v>
       </c>
       <c r="F444" t="s">
-        <v>808</v>
+        <v>787</v>
       </c>
       <c r="G444" t="n">
         <v>1</v>
@@ -16600,10 +16534,10 @@
         <v>444</v>
       </c>
       <c r="E445" t="s">
-        <v>809</v>
+        <v>788</v>
       </c>
       <c r="F445" t="s">
-        <v>810</v>
+        <v>789</v>
       </c>
       <c r="G445" t="n">
         <v>1</v>
@@ -16629,10 +16563,10 @@
         <v>445</v>
       </c>
       <c r="E446" t="s">
-        <v>811</v>
+        <v>790</v>
       </c>
       <c r="F446" t="s">
-        <v>812</v>
+        <v>791</v>
       </c>
       <c r="G446" t="n">
         <v>1</v>
@@ -16658,10 +16592,10 @@
         <v>446</v>
       </c>
       <c r="E447" t="s">
-        <v>813</v>
+        <v>792</v>
       </c>
       <c r="F447" t="s">
-        <v>814</v>
+        <v>793</v>
       </c>
       <c r="G447" t="n">
         <v>1</v>
@@ -16687,10 +16621,10 @@
         <v>447</v>
       </c>
       <c r="E448" t="s">
-        <v>815</v>
+        <v>794</v>
       </c>
       <c r="F448" t="s">
-        <v>816</v>
+        <v>795</v>
       </c>
       <c r="G448" t="n">
         <v>1</v>
@@ -16716,10 +16650,10 @@
         <v>448</v>
       </c>
       <c r="E449" t="s">
-        <v>817</v>
+        <v>796</v>
       </c>
       <c r="F449" t="s">
-        <v>818</v>
+        <v>797</v>
       </c>
       <c r="G449" t="n">
         <v>2</v>
@@ -16745,10 +16679,10 @@
         <v>449</v>
       </c>
       <c r="E450" t="s">
-        <v>819</v>
+        <v>798</v>
       </c>
       <c r="F450" t="s">
-        <v>820</v>
+        <v>799</v>
       </c>
       <c r="G450" t="n">
         <v>1</v>
@@ -16774,10 +16708,10 @@
         <v>450</v>
       </c>
       <c r="E451" t="s">
-        <v>821</v>
+        <v>800</v>
       </c>
       <c r="F451" t="s">
-        <v>822</v>
+        <v>801</v>
       </c>
       <c r="G451" t="n">
         <v>1</v>
@@ -16803,10 +16737,10 @@
         <v>451</v>
       </c>
       <c r="E452" t="s">
-        <v>823</v>
+        <v>802</v>
       </c>
       <c r="F452" t="s">
-        <v>824</v>
+        <v>803</v>
       </c>
       <c r="G452" t="n">
         <v>1</v>
@@ -16832,10 +16766,10 @@
         <v>452</v>
       </c>
       <c r="E453" t="s">
-        <v>825</v>
+        <v>804</v>
       </c>
       <c r="F453" t="s">
-        <v>826</v>
+        <v>805</v>
       </c>
       <c r="G453" t="n">
         <v>1</v>
@@ -16861,10 +16795,10 @@
         <v>453</v>
       </c>
       <c r="E454" t="s">
-        <v>827</v>
+        <v>806</v>
       </c>
       <c r="F454" t="s">
-        <v>828</v>
+        <v>807</v>
       </c>
       <c r="G454" t="n">
         <v>1</v>
@@ -16890,10 +16824,10 @@
         <v>454</v>
       </c>
       <c r="E455" t="s">
-        <v>829</v>
+        <v>808</v>
       </c>
       <c r="F455" t="s">
-        <v>830</v>
+        <v>809</v>
       </c>
       <c r="G455" t="n">
         <v>1</v>
@@ -16919,10 +16853,10 @@
         <v>455</v>
       </c>
       <c r="E456" t="s">
-        <v>831</v>
+        <v>810</v>
       </c>
       <c r="F456" t="s">
-        <v>832</v>
+        <v>811</v>
       </c>
       <c r="G456" t="n">
         <v>1</v>
@@ -16948,10 +16882,10 @@
         <v>456</v>
       </c>
       <c r="E457" t="s">
-        <v>833</v>
+        <v>812</v>
       </c>
       <c r="F457" t="s">
-        <v>834</v>
+        <v>813</v>
       </c>
       <c r="G457" t="n">
         <v>5</v>
@@ -16977,10 +16911,10 @@
         <v>457</v>
       </c>
       <c r="E458" t="s">
-        <v>835</v>
+        <v>814</v>
       </c>
       <c r="F458" t="s">
-        <v>836</v>
+        <v>815</v>
       </c>
       <c r="G458" t="n">
         <v>1</v>
@@ -17006,10 +16940,10 @@
         <v>458</v>
       </c>
       <c r="E459" t="s">
-        <v>837</v>
+        <v>816</v>
       </c>
       <c r="F459" t="s">
-        <v>838</v>
+        <v>817</v>
       </c>
       <c r="G459" t="n">
         <v>1</v>
@@ -17035,10 +16969,10 @@
         <v>459</v>
       </c>
       <c r="E460" t="s">
-        <v>839</v>
+        <v>818</v>
       </c>
       <c r="F460" t="s">
-        <v>840</v>
+        <v>819</v>
       </c>
       <c r="G460" t="n">
         <v>1</v>
@@ -17064,10 +16998,10 @@
         <v>460</v>
       </c>
       <c r="E461" t="s">
-        <v>841</v>
+        <v>820</v>
       </c>
       <c r="F461" t="s">
-        <v>842</v>
+        <v>821</v>
       </c>
       <c r="G461" t="n">
         <v>1</v>
@@ -17093,10 +17027,10 @@
         <v>461</v>
       </c>
       <c r="E462" t="s">
-        <v>843</v>
+        <v>822</v>
       </c>
       <c r="F462" t="s">
-        <v>844</v>
+        <v>823</v>
       </c>
       <c r="G462" t="n">
         <v>2</v>
@@ -17122,10 +17056,10 @@
         <v>462</v>
       </c>
       <c r="E463" t="s">
-        <v>845</v>
+        <v>824</v>
       </c>
       <c r="F463" t="s">
-        <v>846</v>
+        <v>825</v>
       </c>
       <c r="G463" t="n">
         <v>1</v>
@@ -17151,10 +17085,10 @@
         <v>463</v>
       </c>
       <c r="E464" t="s">
-        <v>847</v>
+        <v>826</v>
       </c>
       <c r="F464" t="s">
-        <v>848</v>
+        <v>827</v>
       </c>
       <c r="G464" t="n">
         <v>1</v>
@@ -17180,10 +17114,10 @@
         <v>464</v>
       </c>
       <c r="E465" t="s">
-        <v>849</v>
+        <v>828</v>
       </c>
       <c r="F465" t="s">
-        <v>850</v>
+        <v>829</v>
       </c>
       <c r="G465" t="n">
         <v>1</v>
@@ -17209,10 +17143,10 @@
         <v>465</v>
       </c>
       <c r="E466" t="s">
-        <v>851</v>
+        <v>830</v>
       </c>
       <c r="F466" t="s">
-        <v>852</v>
+        <v>831</v>
       </c>
       <c r="G466" t="n">
         <v>1</v>
@@ -17238,10 +17172,10 @@
         <v>466</v>
       </c>
       <c r="E467" t="s">
-        <v>853</v>
+        <v>832</v>
       </c>
       <c r="F467" t="s">
-        <v>854</v>
+        <v>833</v>
       </c>
       <c r="G467" t="n">
         <v>8</v>
@@ -17267,10 +17201,10 @@
         <v>467</v>
       </c>
       <c r="E468" t="s">
-        <v>855</v>
+        <v>834</v>
       </c>
       <c r="F468" t="s">
-        <v>856</v>
+        <v>835</v>
       </c>
       <c r="G468" t="n">
         <v>1</v>
@@ -17296,10 +17230,10 @@
         <v>468</v>
       </c>
       <c r="E469" t="s">
-        <v>857</v>
+        <v>836</v>
       </c>
       <c r="F469" t="s">
-        <v>858</v>
+        <v>837</v>
       </c>
       <c r="G469" t="n">
         <v>2</v>
@@ -17325,10 +17259,10 @@
         <v>469</v>
       </c>
       <c r="E470" t="s">
-        <v>859</v>
+        <v>838</v>
       </c>
       <c r="F470" t="s">
-        <v>860</v>
+        <v>839</v>
       </c>
       <c r="G470" t="n">
         <v>1</v>
@@ -17354,10 +17288,10 @@
         <v>470</v>
       </c>
       <c r="E471" t="s">
-        <v>861</v>
+        <v>840</v>
       </c>
       <c r="F471" t="s">
-        <v>862</v>
+        <v>841</v>
       </c>
       <c r="G471" t="n">
         <v>1</v>
@@ -17383,10 +17317,10 @@
         <v>471</v>
       </c>
       <c r="E472" t="s">
-        <v>863</v>
+        <v>842</v>
       </c>
       <c r="F472" t="s">
-        <v>864</v>
+        <v>843</v>
       </c>
       <c r="G472" t="n">
         <v>1</v>
@@ -17412,10 +17346,10 @@
         <v>472</v>
       </c>
       <c r="E473" t="s">
-        <v>865</v>
+        <v>844</v>
       </c>
       <c r="F473" t="s">
-        <v>866</v>
+        <v>845</v>
       </c>
       <c r="G473" t="n">
         <v>1</v>
@@ -17441,10 +17375,10 @@
         <v>473</v>
       </c>
       <c r="E474" t="s">
-        <v>867</v>
+        <v>846</v>
       </c>
       <c r="F474" t="s">
-        <v>868</v>
+        <v>847</v>
       </c>
       <c r="G474" t="n">
         <v>1</v>
@@ -17470,10 +17404,10 @@
         <v>474</v>
       </c>
       <c r="E475" t="s">
-        <v>869</v>
+        <v>848</v>
       </c>
       <c r="F475" t="s">
-        <v>870</v>
+        <v>849</v>
       </c>
       <c r="G475" t="n">
         <v>1</v>
@@ -17499,10 +17433,10 @@
         <v>475</v>
       </c>
       <c r="E476" t="s">
-        <v>871</v>
+        <v>850</v>
       </c>
       <c r="F476" t="s">
-        <v>872</v>
+        <v>851</v>
       </c>
       <c r="G476" t="n">
         <v>1</v>
@@ -17528,10 +17462,10 @@
         <v>476</v>
       </c>
       <c r="E477" t="s">
-        <v>873</v>
+        <v>852</v>
       </c>
       <c r="F477" t="s">
-        <v>874</v>
+        <v>853</v>
       </c>
       <c r="G477" t="n">
         <v>1</v>
@@ -17557,10 +17491,10 @@
         <v>477</v>
       </c>
       <c r="E478" t="s">
-        <v>875</v>
+        <v>854</v>
       </c>
       <c r="F478" t="s">
-        <v>876</v>
+        <v>855</v>
       </c>
       <c r="G478" t="n">
         <v>1</v>
@@ -17586,10 +17520,10 @@
         <v>478</v>
       </c>
       <c r="E479" t="s">
-        <v>877</v>
+        <v>856</v>
       </c>
       <c r="F479" t="s">
-        <v>878</v>
+        <v>857</v>
       </c>
       <c r="G479" t="n">
         <v>1</v>
@@ -17615,10 +17549,10 @@
         <v>479</v>
       </c>
       <c r="E480" t="s">
-        <v>879</v>
+        <v>858</v>
       </c>
       <c r="F480" t="s">
-        <v>880</v>
+        <v>859</v>
       </c>
       <c r="G480" t="n">
         <v>6</v>
@@ -17644,10 +17578,10 @@
         <v>480</v>
       </c>
       <c r="E481" t="s">
-        <v>881</v>
+        <v>860</v>
       </c>
       <c r="F481" t="s">
-        <v>882</v>
+        <v>861</v>
       </c>
       <c r="G481" t="n">
         <v>1</v>
@@ -17673,10 +17607,10 @@
         <v>481</v>
       </c>
       <c r="E482" t="s">
-        <v>883</v>
+        <v>862</v>
       </c>
       <c r="F482" t="s">
-        <v>884</v>
+        <v>863</v>
       </c>
       <c r="G482" t="n">
         <v>1</v>
@@ -17702,10 +17636,10 @@
         <v>482</v>
       </c>
       <c r="E483" t="s">
-        <v>885</v>
+        <v>864</v>
       </c>
       <c r="F483" t="s">
-        <v>886</v>
+        <v>865</v>
       </c>
       <c r="G483" t="n">
         <v>1</v>
@@ -17731,10 +17665,10 @@
         <v>483</v>
       </c>
       <c r="E484" t="s">
-        <v>887</v>
+        <v>866</v>
       </c>
       <c r="F484" t="s">
-        <v>888</v>
+        <v>867</v>
       </c>
       <c r="G484" t="n">
         <v>1</v>
@@ -17760,10 +17694,10 @@
         <v>484</v>
       </c>
       <c r="E485" t="s">
-        <v>889</v>
+        <v>868</v>
       </c>
       <c r="F485" t="s">
-        <v>890</v>
+        <v>869</v>
       </c>
       <c r="G485" t="n">
         <v>1</v>
@@ -17789,10 +17723,10 @@
         <v>485</v>
       </c>
       <c r="E486" t="s">
-        <v>891</v>
+        <v>870</v>
       </c>
       <c r="F486" t="s">
-        <v>892</v>
+        <v>871</v>
       </c>
       <c r="G486" t="n">
         <v>1</v>
@@ -17818,10 +17752,10 @@
         <v>486</v>
       </c>
       <c r="E487" t="s">
-        <v>893</v>
+        <v>872</v>
       </c>
       <c r="F487" t="s">
-        <v>894</v>
+        <v>873</v>
       </c>
       <c r="G487" t="n">
         <v>1</v>
@@ -17847,10 +17781,10 @@
         <v>487</v>
       </c>
       <c r="E488" t="s">
-        <v>895</v>
+        <v>874</v>
       </c>
       <c r="F488" t="s">
-        <v>896</v>
+        <v>875</v>
       </c>
       <c r="G488" t="n">
         <v>1</v>
@@ -17876,10 +17810,10 @@
         <v>488</v>
       </c>
       <c r="E489" t="s">
-        <v>897</v>
+        <v>876</v>
       </c>
       <c r="F489" t="s">
-        <v>898</v>
+        <v>877</v>
       </c>
       <c r="G489" t="n">
         <v>1</v>
@@ -17905,10 +17839,10 @@
         <v>489</v>
       </c>
       <c r="E490" t="s">
-        <v>899</v>
+        <v>878</v>
       </c>
       <c r="F490" t="s">
-        <v>900</v>
+        <v>879</v>
       </c>
       <c r="G490" t="n">
         <v>2</v>
@@ -17934,10 +17868,10 @@
         <v>490</v>
       </c>
       <c r="E491" t="s">
-        <v>901</v>
+        <v>880</v>
       </c>
       <c r="F491" t="s">
-        <v>902</v>
+        <v>881</v>
       </c>
       <c r="G491" t="n">
         <v>1</v>
@@ -17963,10 +17897,10 @@
         <v>491</v>
       </c>
       <c r="E492" t="s">
-        <v>903</v>
+        <v>882</v>
       </c>
       <c r="F492" t="s">
-        <v>904</v>
+        <v>883</v>
       </c>
       <c r="G492" t="n">
         <v>1</v>
@@ -17992,10 +17926,10 @@
         <v>492</v>
       </c>
       <c r="E493" t="s">
-        <v>905</v>
+        <v>884</v>
       </c>
       <c r="F493" t="s">
-        <v>906</v>
+        <v>885</v>
       </c>
       <c r="G493" t="n">
         <v>1</v>
@@ -18021,10 +17955,10 @@
         <v>493</v>
       </c>
       <c r="E494" t="s">
-        <v>907</v>
+        <v>886</v>
       </c>
       <c r="F494" t="s">
-        <v>908</v>
+        <v>887</v>
       </c>
       <c r="G494" t="n">
         <v>1</v>
@@ -18050,10 +17984,10 @@
         <v>494</v>
       </c>
       <c r="E495" t="s">
-        <v>909</v>
+        <v>888</v>
       </c>
       <c r="F495" t="s">
-        <v>910</v>
+        <v>889</v>
       </c>
       <c r="G495" t="n">
         <v>2</v>
@@ -18079,10 +18013,10 @@
         <v>495</v>
       </c>
       <c r="E496" t="s">
-        <v>911</v>
+        <v>890</v>
       </c>
       <c r="F496" t="s">
-        <v>912</v>
+        <v>891</v>
       </c>
       <c r="G496" t="n">
         <v>1</v>
@@ -18108,10 +18042,10 @@
         <v>496</v>
       </c>
       <c r="E497" t="s">
-        <v>913</v>
+        <v>892</v>
       </c>
       <c r="F497" t="s">
-        <v>914</v>
+        <v>893</v>
       </c>
       <c r="G497" t="n">
         <v>2</v>
@@ -18137,10 +18071,10 @@
         <v>497</v>
       </c>
       <c r="E498" t="s">
-        <v>915</v>
+        <v>894</v>
       </c>
       <c r="F498" t="s">
-        <v>916</v>
+        <v>895</v>
       </c>
       <c r="G498" t="n">
         <v>2</v>
@@ -18166,10 +18100,10 @@
         <v>498</v>
       </c>
       <c r="E499" t="s">
-        <v>917</v>
+        <v>896</v>
       </c>
       <c r="F499" t="s">
-        <v>918</v>
+        <v>897</v>
       </c>
       <c r="G499" t="n">
         <v>2</v>
@@ -18195,10 +18129,10 @@
         <v>499</v>
       </c>
       <c r="E500" t="s">
-        <v>919</v>
+        <v>898</v>
       </c>
       <c r="F500" t="s">
-        <v>920</v>
+        <v>899</v>
       </c>
       <c r="G500" t="n">
         <v>1</v>
@@ -18224,10 +18158,10 @@
         <v>500</v>
       </c>
       <c r="E501" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F501" t="s">
-        <v>294</v>
+        <v>36</v>
       </c>
       <c r="G501" t="n">
         <v>44</v>
@@ -18253,10 +18187,10 @@
         <v>501</v>
       </c>
       <c r="E502" t="s">
-        <v>921</v>
+        <v>900</v>
       </c>
       <c r="F502" t="s">
-        <v>922</v>
+        <v>901</v>
       </c>
       <c r="G502" t="n">
         <v>1</v>
@@ -18282,10 +18216,10 @@
         <v>502</v>
       </c>
       <c r="E503" t="s">
-        <v>923</v>
+        <v>902</v>
       </c>
       <c r="F503" t="s">
-        <v>924</v>
+        <v>903</v>
       </c>
       <c r="G503" t="n">
         <v>1</v>
@@ -18311,10 +18245,10 @@
         <v>503</v>
       </c>
       <c r="E504" t="s">
-        <v>925</v>
+        <v>904</v>
       </c>
       <c r="F504" t="s">
-        <v>926</v>
+        <v>905</v>
       </c>
       <c r="G504" t="n">
         <v>2</v>
@@ -18340,10 +18274,10 @@
         <v>504</v>
       </c>
       <c r="E505" t="s">
-        <v>927</v>
+        <v>906</v>
       </c>
       <c r="F505" t="s">
-        <v>928</v>
+        <v>907</v>
       </c>
       <c r="G505" t="n">
         <v>1</v>
@@ -18369,10 +18303,10 @@
         <v>505</v>
       </c>
       <c r="E506" t="s">
-        <v>929</v>
+        <v>908</v>
       </c>
       <c r="F506" t="s">
-        <v>930</v>
+        <v>909</v>
       </c>
       <c r="G506" t="n">
         <v>1</v>
@@ -18398,10 +18332,10 @@
         <v>506</v>
       </c>
       <c r="E507" t="s">
-        <v>931</v>
+        <v>910</v>
       </c>
       <c r="F507" t="s">
-        <v>932</v>
+        <v>911</v>
       </c>
       <c r="G507" t="n">
         <v>4</v>
@@ -18427,10 +18361,10 @@
         <v>507</v>
       </c>
       <c r="E508" t="s">
-        <v>933</v>
+        <v>912</v>
       </c>
       <c r="F508" t="s">
-        <v>934</v>
+        <v>913</v>
       </c>
       <c r="G508" t="n">
         <v>1</v>
@@ -18456,10 +18390,10 @@
         <v>508</v>
       </c>
       <c r="E509" t="s">
-        <v>935</v>
+        <v>914</v>
       </c>
       <c r="F509" t="s">
-        <v>936</v>
+        <v>915</v>
       </c>
       <c r="G509" t="n">
         <v>2</v>
@@ -18485,10 +18419,10 @@
         <v>509</v>
       </c>
       <c r="E510" t="s">
-        <v>937</v>
+        <v>916</v>
       </c>
       <c r="F510" t="s">
-        <v>938</v>
+        <v>917</v>
       </c>
       <c r="G510" t="n">
         <v>1</v>
@@ -18514,10 +18448,10 @@
         <v>510</v>
       </c>
       <c r="E511" t="s">
-        <v>939</v>
+        <v>918</v>
       </c>
       <c r="F511" t="s">
-        <v>940</v>
+        <v>919</v>
       </c>
       <c r="G511" t="n">
         <v>1</v>
@@ -18543,10 +18477,10 @@
         <v>511</v>
       </c>
       <c r="E512" t="s">
-        <v>941</v>
+        <v>920</v>
       </c>
       <c r="F512" t="s">
-        <v>942</v>
+        <v>921</v>
       </c>
       <c r="G512" t="n">
         <v>1</v>
@@ -18572,10 +18506,10 @@
         <v>512</v>
       </c>
       <c r="E513" t="s">
-        <v>943</v>
+        <v>922</v>
       </c>
       <c r="F513" t="s">
-        <v>944</v>
+        <v>923</v>
       </c>
       <c r="G513" t="n">
         <v>1</v>
@@ -18601,10 +18535,10 @@
         <v>513</v>
       </c>
       <c r="E514" t="s">
-        <v>945</v>
+        <v>924</v>
       </c>
       <c r="F514" t="s">
-        <v>946</v>
+        <v>925</v>
       </c>
       <c r="G514" t="n">
         <v>1</v>
@@ -18630,10 +18564,10 @@
         <v>514</v>
       </c>
       <c r="E515" t="s">
-        <v>947</v>
+        <v>926</v>
       </c>
       <c r="F515" t="s">
-        <v>948</v>
+        <v>927</v>
       </c>
       <c r="G515" t="n">
         <v>1</v>
@@ -18659,10 +18593,10 @@
         <v>515</v>
       </c>
       <c r="E516" t="s">
-        <v>949</v>
+        <v>928</v>
       </c>
       <c r="F516" t="s">
-        <v>950</v>
+        <v>929</v>
       </c>
       <c r="G516" t="n">
         <v>1</v>
@@ -18688,10 +18622,10 @@
         <v>516</v>
       </c>
       <c r="E517" t="s">
-        <v>951</v>
+        <v>930</v>
       </c>
       <c r="F517" t="s">
-        <v>952</v>
+        <v>931</v>
       </c>
       <c r="G517" t="n">
         <v>1</v>
@@ -18717,10 +18651,10 @@
         <v>517</v>
       </c>
       <c r="E518" t="s">
-        <v>953</v>
+        <v>932</v>
       </c>
       <c r="F518" t="s">
-        <v>954</v>
+        <v>933</v>
       </c>
       <c r="G518" t="n">
         <v>1</v>
@@ -18746,10 +18680,10 @@
         <v>518</v>
       </c>
       <c r="E519" t="s">
-        <v>955</v>
+        <v>934</v>
       </c>
       <c r="F519" t="s">
-        <v>956</v>
+        <v>935</v>
       </c>
       <c r="G519" t="n">
         <v>1</v>
@@ -18775,10 +18709,10 @@
         <v>519</v>
       </c>
       <c r="E520" t="s">
-        <v>573</v>
+        <v>558</v>
       </c>
       <c r="F520" t="s">
-        <v>574</v>
+        <v>88</v>
       </c>
       <c r="G520" t="n">
         <v>1</v>
@@ -18804,10 +18738,10 @@
         <v>520</v>
       </c>
       <c r="E521" t="s">
-        <v>957</v>
+        <v>936</v>
       </c>
       <c r="F521" t="s">
-        <v>958</v>
+        <v>937</v>
       </c>
       <c r="G521" t="n">
         <v>1</v>
@@ -18833,10 +18767,10 @@
         <v>521</v>
       </c>
       <c r="E522" t="s">
-        <v>959</v>
+        <v>938</v>
       </c>
       <c r="F522" t="s">
-        <v>960</v>
+        <v>939</v>
       </c>
       <c r="G522" t="n">
         <v>1</v>
@@ -18862,10 +18796,10 @@
         <v>522</v>
       </c>
       <c r="E523" t="s">
-        <v>961</v>
+        <v>940</v>
       </c>
       <c r="F523" t="s">
-        <v>962</v>
+        <v>941</v>
       </c>
       <c r="G523" t="n">
         <v>1</v>
@@ -18891,10 +18825,10 @@
         <v>523</v>
       </c>
       <c r="E524" t="s">
-        <v>963</v>
+        <v>942</v>
       </c>
       <c r="F524" t="s">
-        <v>964</v>
+        <v>943</v>
       </c>
       <c r="G524" t="n">
         <v>1</v>
@@ -18920,10 +18854,10 @@
         <v>524</v>
       </c>
       <c r="E525" t="s">
-        <v>965</v>
+        <v>944</v>
       </c>
       <c r="F525" t="s">
-        <v>966</v>
+        <v>945</v>
       </c>
       <c r="G525" t="n">
         <v>1</v>
@@ -18949,10 +18883,10 @@
         <v>525</v>
       </c>
       <c r="E526" t="s">
-        <v>967</v>
+        <v>946</v>
       </c>
       <c r="F526" t="s">
-        <v>968</v>
+        <v>947</v>
       </c>
       <c r="G526" t="n">
         <v>1</v>
@@ -18978,10 +18912,10 @@
         <v>526</v>
       </c>
       <c r="E527" t="s">
-        <v>969</v>
+        <v>948</v>
       </c>
       <c r="F527" t="s">
-        <v>970</v>
+        <v>949</v>
       </c>
       <c r="G527" t="n">
         <v>1</v>
@@ -19007,10 +18941,10 @@
         <v>527</v>
       </c>
       <c r="E528" t="s">
-        <v>971</v>
+        <v>950</v>
       </c>
       <c r="F528" t="s">
-        <v>972</v>
+        <v>951</v>
       </c>
       <c r="G528" t="n">
         <v>1</v>
@@ -19036,10 +18970,10 @@
         <v>528</v>
       </c>
       <c r="E529" t="s">
-        <v>973</v>
+        <v>952</v>
       </c>
       <c r="F529" t="s">
-        <v>974</v>
+        <v>953</v>
       </c>
       <c r="G529" t="n">
         <v>1</v>
@@ -19065,10 +18999,10 @@
         <v>529</v>
       </c>
       <c r="E530" t="s">
-        <v>975</v>
+        <v>954</v>
       </c>
       <c r="F530" t="s">
-        <v>976</v>
+        <v>955</v>
       </c>
       <c r="G530" t="n">
         <v>1</v>
@@ -19094,10 +19028,10 @@
         <v>530</v>
       </c>
       <c r="E531" t="s">
-        <v>977</v>
+        <v>956</v>
       </c>
       <c r="F531" t="s">
-        <v>978</v>
+        <v>957</v>
       </c>
       <c r="G531" t="n">
         <v>1</v>
@@ -19123,10 +19057,10 @@
         <v>531</v>
       </c>
       <c r="E532" t="s">
-        <v>979</v>
+        <v>958</v>
       </c>
       <c r="F532" t="s">
-        <v>980</v>
+        <v>959</v>
       </c>
       <c r="G532" t="n">
         <v>1</v>
@@ -19152,10 +19086,10 @@
         <v>532</v>
       </c>
       <c r="E533" t="s">
-        <v>981</v>
+        <v>960</v>
       </c>
       <c r="F533" t="s">
-        <v>982</v>
+        <v>961</v>
       </c>
       <c r="G533" t="n">
         <v>1</v>
@@ -19181,10 +19115,10 @@
         <v>533</v>
       </c>
       <c r="E534" t="s">
-        <v>983</v>
+        <v>962</v>
       </c>
       <c r="F534" t="s">
-        <v>984</v>
+        <v>963</v>
       </c>
       <c r="G534" t="n">
         <v>2</v>
@@ -19210,10 +19144,10 @@
         <v>534</v>
       </c>
       <c r="E535" t="s">
-        <v>985</v>
+        <v>964</v>
       </c>
       <c r="F535" t="s">
-        <v>986</v>
+        <v>965</v>
       </c>
       <c r="G535" t="n">
         <v>1</v>
@@ -19239,10 +19173,10 @@
         <v>535</v>
       </c>
       <c r="E536" t="s">
-        <v>987</v>
+        <v>966</v>
       </c>
       <c r="F536" t="s">
-        <v>988</v>
+        <v>967</v>
       </c>
       <c r="G536" t="n">
         <v>1</v>
@@ -19268,10 +19202,10 @@
         <v>536</v>
       </c>
       <c r="E537" t="s">
-        <v>989</v>
+        <v>968</v>
       </c>
       <c r="F537" t="s">
-        <v>990</v>
+        <v>969</v>
       </c>
       <c r="G537" t="n">
         <v>1</v>
@@ -19297,10 +19231,10 @@
         <v>537</v>
       </c>
       <c r="E538" t="s">
-        <v>991</v>
+        <v>970</v>
       </c>
       <c r="F538" t="s">
-        <v>992</v>
+        <v>971</v>
       </c>
       <c r="G538" t="n">
         <v>1</v>
@@ -19326,10 +19260,10 @@
         <v>538</v>
       </c>
       <c r="E539" t="s">
-        <v>993</v>
+        <v>972</v>
       </c>
       <c r="F539" t="s">
-        <v>994</v>
+        <v>973</v>
       </c>
       <c r="G539" t="n">
         <v>1</v>
@@ -19355,10 +19289,10 @@
         <v>539</v>
       </c>
       <c r="E540" t="s">
-        <v>995</v>
+        <v>974</v>
       </c>
       <c r="F540" t="s">
-        <v>996</v>
+        <v>975</v>
       </c>
       <c r="G540" t="n">
         <v>1</v>
@@ -19384,10 +19318,10 @@
         <v>540</v>
       </c>
       <c r="E541" t="s">
-        <v>961</v>
+        <v>940</v>
       </c>
       <c r="F541" t="s">
-        <v>962</v>
+        <v>941</v>
       </c>
       <c r="G541" t="n">
         <v>1</v>
@@ -19413,10 +19347,10 @@
         <v>541</v>
       </c>
       <c r="E542" t="s">
-        <v>997</v>
+        <v>976</v>
       </c>
       <c r="F542" t="s">
-        <v>998</v>
+        <v>977</v>
       </c>
       <c r="G542" t="n">
         <v>14</v>
@@ -19442,10 +19376,10 @@
         <v>542</v>
       </c>
       <c r="E543" t="s">
-        <v>999</v>
+        <v>978</v>
       </c>
       <c r="F543" t="s">
-        <v>1000</v>
+        <v>979</v>
       </c>
       <c r="G543" t="n">
         <v>1</v>
@@ -19471,10 +19405,10 @@
         <v>543</v>
       </c>
       <c r="E544" t="s">
-        <v>1001</v>
+        <v>980</v>
       </c>
       <c r="F544" t="s">
-        <v>1002</v>
+        <v>981</v>
       </c>
       <c r="G544" t="n">
         <v>1</v>
@@ -19500,10 +19434,10 @@
         <v>544</v>
       </c>
       <c r="E545" t="s">
-        <v>1003</v>
+        <v>982</v>
       </c>
       <c r="F545" t="s">
-        <v>1004</v>
+        <v>983</v>
       </c>
       <c r="G545" t="n">
         <v>1</v>
@@ -19529,10 +19463,10 @@
         <v>545</v>
       </c>
       <c r="E546" t="s">
-        <v>1005</v>
+        <v>984</v>
       </c>
       <c r="F546" t="s">
-        <v>1006</v>
+        <v>985</v>
       </c>
       <c r="G546" t="n">
         <v>3</v>
@@ -19558,10 +19492,10 @@
         <v>546</v>
       </c>
       <c r="E547" t="s">
-        <v>1007</v>
+        <v>986</v>
       </c>
       <c r="F547" t="s">
-        <v>1008</v>
+        <v>987</v>
       </c>
       <c r="G547" t="n">
         <v>1</v>
@@ -19587,10 +19521,10 @@
         <v>547</v>
       </c>
       <c r="E548" t="s">
-        <v>1009</v>
+        <v>988</v>
       </c>
       <c r="F548" t="s">
-        <v>1010</v>
+        <v>989</v>
       </c>
       <c r="G548" t="n">
         <v>3</v>
@@ -19616,10 +19550,10 @@
         <v>548</v>
       </c>
       <c r="E549" t="s">
-        <v>1011</v>
+        <v>990</v>
       </c>
       <c r="F549" t="s">
-        <v>1012</v>
+        <v>991</v>
       </c>
       <c r="G549" t="n">
         <v>1</v>
@@ -19645,10 +19579,10 @@
         <v>549</v>
       </c>
       <c r="E550" t="s">
-        <v>1013</v>
+        <v>992</v>
       </c>
       <c r="F550" t="s">
-        <v>1014</v>
+        <v>993</v>
       </c>
       <c r="G550" t="n">
         <v>1</v>
@@ -19674,10 +19608,10 @@
         <v>550</v>
       </c>
       <c r="E551" t="s">
-        <v>1015</v>
+        <v>994</v>
       </c>
       <c r="F551" t="s">
-        <v>1016</v>
+        <v>995</v>
       </c>
       <c r="G551" t="n">
         <v>1</v>
@@ -19703,10 +19637,10 @@
         <v>551</v>
       </c>
       <c r="E552" t="s">
-        <v>1017</v>
+        <v>996</v>
       </c>
       <c r="F552" t="s">
-        <v>1018</v>
+        <v>997</v>
       </c>
       <c r="G552" t="n">
         <v>1</v>
@@ -19732,10 +19666,10 @@
         <v>552</v>
       </c>
       <c r="E553" t="s">
-        <v>1019</v>
+        <v>998</v>
       </c>
       <c r="F553" t="s">
-        <v>1020</v>
+        <v>999</v>
       </c>
       <c r="G553" t="n">
         <v>2</v>
@@ -19761,10 +19695,10 @@
         <v>553</v>
       </c>
       <c r="E554" t="s">
-        <v>1021</v>
+        <v>1000</v>
       </c>
       <c r="F554" t="s">
-        <v>1022</v>
+        <v>1001</v>
       </c>
       <c r="G554" t="n">
         <v>1</v>
@@ -19790,10 +19724,10 @@
         <v>554</v>
       </c>
       <c r="E555" t="s">
-        <v>1023</v>
+        <v>1002</v>
       </c>
       <c r="F555" t="s">
-        <v>1024</v>
+        <v>1003</v>
       </c>
       <c r="G555" t="n">
         <v>1</v>
@@ -19819,10 +19753,10 @@
         <v>555</v>
       </c>
       <c r="E556" t="s">
-        <v>1025</v>
+        <v>1004</v>
       </c>
       <c r="F556" t="s">
-        <v>1026</v>
+        <v>1005</v>
       </c>
       <c r="G556" t="n">
         <v>1</v>
@@ -19848,10 +19782,10 @@
         <v>556</v>
       </c>
       <c r="E557" t="s">
-        <v>1027</v>
+        <v>1006</v>
       </c>
       <c r="F557" t="s">
-        <v>1028</v>
+        <v>1007</v>
       </c>
       <c r="G557" t="n">
         <v>1</v>
@@ -19877,10 +19811,10 @@
         <v>557</v>
       </c>
       <c r="E558" t="s">
-        <v>1029</v>
+        <v>1008</v>
       </c>
       <c r="F558" t="s">
-        <v>1030</v>
+        <v>1009</v>
       </c>
       <c r="G558" t="n">
         <v>1</v>
@@ -19906,10 +19840,10 @@
         <v>558</v>
       </c>
       <c r="E559" t="s">
-        <v>1031</v>
+        <v>1010</v>
       </c>
       <c r="F559" t="s">
-        <v>1032</v>
+        <v>1011</v>
       </c>
       <c r="G559" t="n">
         <v>1</v>
@@ -19935,10 +19869,10 @@
         <v>559</v>
       </c>
       <c r="E560" t="s">
-        <v>1033</v>
+        <v>1012</v>
       </c>
       <c r="F560" t="s">
-        <v>1034</v>
+        <v>1013</v>
       </c>
       <c r="G560" t="n">
         <v>1</v>
@@ -19964,10 +19898,10 @@
         <v>560</v>
       </c>
       <c r="E561" t="s">
-        <v>1035</v>
+        <v>1014</v>
       </c>
       <c r="F561" t="s">
-        <v>1036</v>
+        <v>1015</v>
       </c>
       <c r="G561" t="n">
         <v>1</v>
@@ -19993,10 +19927,10 @@
         <v>561</v>
       </c>
       <c r="E562" t="s">
-        <v>1037</v>
+        <v>1016</v>
       </c>
       <c r="F562" t="s">
-        <v>1038</v>
+        <v>1017</v>
       </c>
       <c r="G562" t="n">
         <v>1</v>
@@ -20022,10 +19956,10 @@
         <v>562</v>
       </c>
       <c r="E563" t="s">
-        <v>1039</v>
+        <v>1018</v>
       </c>
       <c r="F563" t="s">
-        <v>1040</v>
+        <v>1019</v>
       </c>
       <c r="G563" t="n">
         <v>1</v>
@@ -20051,10 +19985,10 @@
         <v>563</v>
       </c>
       <c r="E564" t="s">
-        <v>1041</v>
+        <v>1020</v>
       </c>
       <c r="F564" t="s">
-        <v>1042</v>
+        <v>1021</v>
       </c>
       <c r="G564" t="n">
         <v>1</v>
@@ -20080,10 +20014,10 @@
         <v>564</v>
       </c>
       <c r="E565" t="s">
-        <v>1043</v>
+        <v>1022</v>
       </c>
       <c r="F565" t="s">
-        <v>1044</v>
+        <v>1023</v>
       </c>
       <c r="G565" t="n">
         <v>1</v>
@@ -20109,10 +20043,10 @@
         <v>565</v>
       </c>
       <c r="E566" t="s">
-        <v>1045</v>
+        <v>1024</v>
       </c>
       <c r="F566" t="s">
-        <v>1046</v>
+        <v>1025</v>
       </c>
       <c r="G566" t="n">
         <v>1</v>
@@ -20138,10 +20072,10 @@
         <v>566</v>
       </c>
       <c r="E567" t="s">
-        <v>1047</v>
+        <v>1026</v>
       </c>
       <c r="F567" t="s">
-        <v>1048</v>
+        <v>1027</v>
       </c>
       <c r="G567" t="n">
         <v>1</v>
@@ -20167,10 +20101,10 @@
         <v>567</v>
       </c>
       <c r="E568" t="s">
-        <v>1049</v>
+        <v>1028</v>
       </c>
       <c r="F568" t="s">
-        <v>1050</v>
+        <v>1029</v>
       </c>
       <c r="G568" t="n">
         <v>1</v>
@@ -20196,10 +20130,10 @@
         <v>568</v>
       </c>
       <c r="E569" t="s">
-        <v>709</v>
+        <v>688</v>
       </c>
       <c r="F569" t="s">
-        <v>710</v>
+        <v>689</v>
       </c>
       <c r="G569" t="n">
         <v>1</v>
@@ -20225,10 +20159,10 @@
         <v>569</v>
       </c>
       <c r="E570" t="s">
-        <v>1051</v>
+        <v>1030</v>
       </c>
       <c r="F570" t="s">
-        <v>1052</v>
+        <v>1031</v>
       </c>
       <c r="G570" t="n">
         <v>2</v>
@@ -20254,10 +20188,10 @@
         <v>570</v>
       </c>
       <c r="E571" t="s">
-        <v>1053</v>
+        <v>1032</v>
       </c>
       <c r="F571" t="s">
-        <v>1054</v>
+        <v>1033</v>
       </c>
       <c r="G571" t="n">
         <v>1</v>
@@ -20283,10 +20217,10 @@
         <v>571</v>
       </c>
       <c r="E572" t="s">
-        <v>1055</v>
+        <v>1034</v>
       </c>
       <c r="F572" t="s">
-        <v>1056</v>
+        <v>1035</v>
       </c>
       <c r="G572" t="n">
         <v>5</v>
@@ -20312,10 +20246,10 @@
         <v>572</v>
       </c>
       <c r="E573" t="s">
-        <v>1057</v>
+        <v>1036</v>
       </c>
       <c r="F573" t="s">
-        <v>1058</v>
+        <v>1037</v>
       </c>
       <c r="G573" t="n">
         <v>1</v>
@@ -20341,10 +20275,10 @@
         <v>573</v>
       </c>
       <c r="E574" t="s">
-        <v>1059</v>
+        <v>1038</v>
       </c>
       <c r="F574" t="s">
-        <v>1060</v>
+        <v>1039</v>
       </c>
       <c r="G574" t="n">
         <v>1</v>
@@ -20370,10 +20304,10 @@
         <v>574</v>
       </c>
       <c r="E575" t="s">
-        <v>1061</v>
+        <v>1040</v>
       </c>
       <c r="F575" t="s">
-        <v>1062</v>
+        <v>889</v>
       </c>
       <c r="G575" t="n">
         <v>1</v>
@@ -20399,10 +20333,10 @@
         <v>575</v>
       </c>
       <c r="E576" t="s">
-        <v>1063</v>
+        <v>1041</v>
       </c>
       <c r="F576" t="s">
-        <v>1064</v>
+        <v>1042</v>
       </c>
       <c r="G576" t="n">
         <v>2</v>
@@ -20428,10 +20362,10 @@
         <v>576</v>
       </c>
       <c r="E577" t="s">
-        <v>1065</v>
+        <v>1043</v>
       </c>
       <c r="F577" t="s">
-        <v>1066</v>
+        <v>1044</v>
       </c>
       <c r="G577" t="n">
         <v>1</v>
@@ -20457,10 +20391,10 @@
         <v>577</v>
       </c>
       <c r="E578" t="s">
-        <v>1067</v>
+        <v>1045</v>
       </c>
       <c r="F578" t="s">
-        <v>1068</v>
+        <v>1046</v>
       </c>
       <c r="G578" t="n">
         <v>1</v>
@@ -20486,10 +20420,10 @@
         <v>578</v>
       </c>
       <c r="E579" t="s">
-        <v>1069</v>
+        <v>1047</v>
       </c>
       <c r="F579" t="s">
-        <v>1070</v>
+        <v>1048</v>
       </c>
       <c r="G579" t="n">
         <v>2</v>
@@ -20515,10 +20449,10 @@
         <v>579</v>
       </c>
       <c r="E580" t="s">
-        <v>1071</v>
+        <v>1049</v>
       </c>
       <c r="F580" t="s">
-        <v>1072</v>
+        <v>1050</v>
       </c>
       <c r="G580" t="n">
         <v>1</v>
@@ -20544,10 +20478,10 @@
         <v>580</v>
       </c>
       <c r="E581" t="s">
-        <v>1073</v>
+        <v>1051</v>
       </c>
       <c r="F581" t="s">
-        <v>1074</v>
+        <v>1052</v>
       </c>
       <c r="G581" t="n">
         <v>1</v>
@@ -20573,10 +20507,10 @@
         <v>581</v>
       </c>
       <c r="E582" t="s">
-        <v>1075</v>
+        <v>1053</v>
       </c>
       <c r="F582" t="s">
-        <v>1076</v>
+        <v>1054</v>
       </c>
       <c r="G582" t="n">
         <v>4</v>
@@ -20602,10 +20536,10 @@
         <v>582</v>
       </c>
       <c r="E583" t="s">
-        <v>1077</v>
+        <v>1055</v>
       </c>
       <c r="F583" t="s">
-        <v>1078</v>
+        <v>1056</v>
       </c>
       <c r="G583" t="n">
         <v>1</v>
@@ -20631,10 +20565,10 @@
         <v>583</v>
       </c>
       <c r="E584" t="s">
-        <v>1079</v>
+        <v>1057</v>
       </c>
       <c r="F584" t="s">
-        <v>1080</v>
+        <v>1058</v>
       </c>
       <c r="G584" t="n">
         <v>1</v>
@@ -20660,10 +20594,10 @@
         <v>584</v>
       </c>
       <c r="E585" t="s">
-        <v>1081</v>
+        <v>1059</v>
       </c>
       <c r="F585" t="s">
-        <v>1082</v>
+        <v>1060</v>
       </c>
       <c r="G585" t="n">
         <v>1</v>
@@ -20689,10 +20623,10 @@
         <v>585</v>
       </c>
       <c r="E586" t="s">
-        <v>1083</v>
+        <v>1061</v>
       </c>
       <c r="F586" t="s">
-        <v>1084</v>
+        <v>1062</v>
       </c>
       <c r="G586" t="n">
         <v>1</v>
@@ -20718,10 +20652,10 @@
         <v>586</v>
       </c>
       <c r="E587" t="s">
-        <v>1085</v>
+        <v>1063</v>
       </c>
       <c r="F587" t="s">
-        <v>1086</v>
+        <v>1064</v>
       </c>
       <c r="G587" t="n">
         <v>1</v>
@@ -20747,10 +20681,10 @@
         <v>587</v>
       </c>
       <c r="E588" t="s">
-        <v>1087</v>
+        <v>1065</v>
       </c>
       <c r="F588" t="s">
-        <v>1088</v>
+        <v>1066</v>
       </c>
       <c r="G588" t="n">
         <v>1</v>
@@ -20776,10 +20710,10 @@
         <v>588</v>
       </c>
       <c r="E589" t="s">
-        <v>1089</v>
+        <v>1067</v>
       </c>
       <c r="F589" t="s">
-        <v>1090</v>
+        <v>1068</v>
       </c>
       <c r="G589" t="n">
         <v>1</v>
@@ -20805,10 +20739,10 @@
         <v>589</v>
       </c>
       <c r="E590" t="s">
-        <v>1091</v>
+        <v>1069</v>
       </c>
       <c r="F590" t="s">
-        <v>1092</v>
+        <v>1070</v>
       </c>
       <c r="G590" t="n">
         <v>1</v>
@@ -20834,10 +20768,10 @@
         <v>590</v>
       </c>
       <c r="E591" t="s">
-        <v>1093</v>
+        <v>1071</v>
       </c>
       <c r="F591" t="s">
-        <v>1094</v>
+        <v>1072</v>
       </c>
       <c r="G591" t="n">
         <v>1</v>
@@ -20863,10 +20797,10 @@
         <v>591</v>
       </c>
       <c r="E592" t="s">
-        <v>807</v>
+        <v>786</v>
       </c>
       <c r="F592" t="s">
-        <v>808</v>
+        <v>787</v>
       </c>
       <c r="G592" t="n">
         <v>2</v>
@@ -20892,10 +20826,10 @@
         <v>592</v>
       </c>
       <c r="E593" t="s">
-        <v>1095</v>
+        <v>1073</v>
       </c>
       <c r="F593" t="s">
-        <v>1096</v>
+        <v>1074</v>
       </c>
       <c r="G593" t="n">
         <v>1</v>
@@ -20921,10 +20855,10 @@
         <v>593</v>
       </c>
       <c r="E594" t="s">
-        <v>1097</v>
+        <v>1075</v>
       </c>
       <c r="F594" t="s">
-        <v>1098</v>
+        <v>1076</v>
       </c>
       <c r="G594" t="n">
         <v>1</v>
@@ -20950,10 +20884,10 @@
         <v>594</v>
       </c>
       <c r="E595" t="s">
-        <v>1099</v>
+        <v>1077</v>
       </c>
       <c r="F595" t="s">
-        <v>1100</v>
+        <v>1078</v>
       </c>
       <c r="G595" t="n">
         <v>1</v>
@@ -20979,10 +20913,10 @@
         <v>595</v>
       </c>
       <c r="E596" t="s">
-        <v>1101</v>
+        <v>1079</v>
       </c>
       <c r="F596" t="s">
-        <v>1102</v>
+        <v>1080</v>
       </c>
       <c r="G596" t="n">
         <v>1</v>
@@ -21008,10 +20942,10 @@
         <v>596</v>
       </c>
       <c r="E597" t="s">
-        <v>1103</v>
+        <v>1081</v>
       </c>
       <c r="F597" t="s">
-        <v>1104</v>
+        <v>1082</v>
       </c>
       <c r="G597" t="n">
         <v>1</v>
@@ -21037,10 +20971,10 @@
         <v>597</v>
       </c>
       <c r="E598" t="s">
-        <v>1105</v>
+        <v>1083</v>
       </c>
       <c r="F598" t="s">
-        <v>1106</v>
+        <v>1084</v>
       </c>
       <c r="G598" t="n">
         <v>1</v>
@@ -21066,10 +21000,10 @@
         <v>598</v>
       </c>
       <c r="E599" t="s">
-        <v>1107</v>
+        <v>1085</v>
       </c>
       <c r="F599" t="s">
-        <v>1108</v>
+        <v>1086</v>
       </c>
       <c r="G599" t="n">
         <v>1</v>
@@ -21095,10 +21029,10 @@
         <v>599</v>
       </c>
       <c r="E600" t="s">
-        <v>1109</v>
+        <v>1087</v>
       </c>
       <c r="F600" t="s">
-        <v>1110</v>
+        <v>1088</v>
       </c>
       <c r="G600" t="n">
         <v>1</v>
@@ -21124,10 +21058,10 @@
         <v>600</v>
       </c>
       <c r="E601" t="s">
-        <v>1111</v>
+        <v>1089</v>
       </c>
       <c r="F601" t="s">
-        <v>1112</v>
+        <v>1090</v>
       </c>
       <c r="G601" t="n">
         <v>4</v>
@@ -21153,10 +21087,10 @@
         <v>601</v>
       </c>
       <c r="E602" t="s">
-        <v>1111</v>
+        <v>1089</v>
       </c>
       <c r="F602" t="s">
-        <v>1113</v>
+        <v>1091</v>
       </c>
       <c r="G602" t="n">
         <v>1</v>
